--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Unity_포트폴리오\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DEF56-6CBF-44B8-9DF1-CEF9BCC32E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49491A3E-86B4-4C0A-BA46-B40D0E43CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CAA9C009-6934-4DE2-88A7-ECE85B3335DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAA9C009-6934-4DE2-88A7-ECE85B3335DD}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="추가 의견" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP 구현, 스태미나 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피버 게이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,22 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 1 스킬 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 2 스킬 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 3 스킬 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 4 스킬 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>트리거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +278,86 @@
   </si>
   <si>
     <t>김건희, 박금환, 정유석, 정준성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미완료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박금환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트하면서 예외처리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 무빙 예외처리, 구현방식 바꿔야 함,각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치는 ai 패턴 구현 후 세부조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정준성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김건희 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟팅 화전 구현, 세부 예외처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 1(광대) 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 2(박스맨) 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 3(솔져) 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 4(곰돌이) 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 구현, 스태미나 구현(ui)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 구현, 스태미나 히트 처리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,15 +626,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,7 +641,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,15 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,7 +1021,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -975,103 +1035,103 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>40</v>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>55</v>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1151,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="B4" sqref="B4:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1161,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1134,260 +1194,260 @@
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
@@ -1424,260 +1484,260 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1693,46 +1753,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B9284F-8DF5-4956-8B1C-E8703B715CDD}">
-  <dimension ref="B2:I59"/>
+  <dimension ref="B2:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="55.625" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:9" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1748,7 +1808,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1766,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1784,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1802,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1820,7 +1880,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -1838,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1856,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1874,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1892,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1907,17 +1967,19 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1925,17 +1987,19 @@
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1943,10 +2007,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1961,10 +2025,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1979,17 +2043,19 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1997,17 +2063,19 @@
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2015,136 +2083,158 @@
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2153,16 +2243,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2171,16 +2261,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2188,31 +2278,59 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
@@ -2335,58 +2453,88 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H43" s="7"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H44" s="7"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H45" s="7"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H46" s="7"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H47" s="7"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:9" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H48" s="7"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H49" s="7"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H50" s="7"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H51" s="7"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H52" s="7"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H53" s="7"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H54" s="7"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H55" s="7"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H56" s="7"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H57" s="7"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H58" s="7"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H59" s="7"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I27" xr:uid="{60B9284F-8DF5-4956-8B1C-E8703B715CDD}"/>
+  <autoFilter ref="B2:I30" xr:uid="{60B9284F-8DF5-4956-8B1C-E8703B715CDD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2397,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542F88C-7B98-4B13-B9D8-5C49F6248D75}">
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2410,13 +2558,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Unity_포트폴리오\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49491A3E-86B4-4C0A-BA46-B40D0E43CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAA9C009-6934-4DE2-88A7-ECE85B3335DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,13 +357,25 @@
   </si>
   <si>
     <t xml:space="preserve">HP 구현, 스태미나 히트 처리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박금환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈게이지 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지UI 위치, 애니메이션, 폰트, 크기 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1002,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D32364-2953-45DC-9AAC-376A3BD188AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1147,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F023AD-338D-448A-B958-07FB7AF0BE9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1752,11 +1763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B9284F-8DF5-4956-8B1C-E8703B715CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2534,7 +2545,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30" xr:uid="{60B9284F-8DF5-4956-8B1C-E8703B715CDD}"/>
+  <autoFilter ref="B2:I30"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2542,11 +2553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542F88C-7B98-4B13-B9D8-5C49F6248D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2569,13 +2580,19 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubWork3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67A37A-C136-463F-8CA6-F1D8191DA6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="17385" windowHeight="14460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
     <sheet name="캐릭터, 맵 제작 상황" sheetId="3" r:id="rId2"/>
     <sheet name="일감" sheetId="1" r:id="rId3"/>
     <sheet name="추가 의견" sheetId="4" r:id="rId4"/>
+    <sheet name="0714 회의내용" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,13 +371,157 @@
   </si>
   <si>
     <t>데미지UI 위치, 애니메이션, 폰트, 크기 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 , 카메라, 스킬, 공격, 대쉬(알파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 이동, AI 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 함수()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 메쉬 쓰고 -&gt; 시간남으면 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 들어갈 때 AI 이동, 공격 더 논의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호작용: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트, 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 -&gt; 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불렛 -&gt; 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공격 나가면 스피어 충돌체 나가게 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. AI를 만들어서 해보자(이동, 공격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. UI 작업 중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 내부에(데미지 받음) 함수를 만들고 몬스터가 불러오자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불렛(충돌체 처리) 몬스터의 데미지 받는 함수를 써서 딜을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹: 모델링, 이니시에이트 함수 써서 생성해서 날리고, 캐릭터에 따라 다름, 사정거리까지,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튕기는 전도체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탑박기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부메랑처럼 왔다갔다 하는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격: 바주카 한 발을 포물선으로 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쓸 때는 적에게 날릴 건데 타게팅 된 적에게 유도탄으로 날라감.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분신 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개틀링건 쏘는 것(6 ~ 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 캐릭터가 총알을 날리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 총알, 충돌체 벽, 오브젝트 맞으면 데스트로이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag: Ground, Obstacle, Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리) 210718.(일)까지 할 것.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -618,13 +764,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +925,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1158,7 +1471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1763,12 +2076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2508,9 +2821,7 @@
     <row r="50" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H51" s="4"/>
-    </row>
+    <row r="51" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="52" spans="8:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H52" s="4"/>
     </row>
@@ -2545,7 +2856,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30"/>
+  <autoFilter ref="B2:I30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2553,10 +2864,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2959,4 +3270,485 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F99D0-9C4E-4D0C-9349-4DA98637E5BF}">
+  <dimension ref="C7:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="39"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="39"/>
+      <c r="D23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="40"/>
+      <c r="D24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="48"/>
+      <c r="D35" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="48"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="48"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="48"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="48"/>
+      <c r="D41" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="48"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="47"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="47"/>
+    </row>
+    <row r="44" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="49"/>
+      <c r="D44" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+    </row>
+    <row r="46" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="48"/>
+      <c r="D49" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="47"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="48"/>
+      <c r="D50" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="48"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="47"/>
+    </row>
+    <row r="52" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="52"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubWork3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67A37A-C136-463F-8CA6-F1D8191DA6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272965B-6BCE-4E72-9D8C-5A3F13048719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="17385" windowHeight="14460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -18,21 +18,31 @@
     <sheet name="일감" sheetId="1" r:id="rId3"/>
     <sheet name="추가 의견" sheetId="4" r:id="rId4"/>
     <sheet name="0714 회의내용" sheetId="5" r:id="rId5"/>
+    <sheet name="7월 19일" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +525,139 @@
   </si>
   <si>
     <t>정리) 210718.(일)까지 할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알 나가는 것 구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타게팅 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버스피어로 일정 영역 내의 콜라이더 색출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 제일 가까운 곳 콜라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 내적 앵글 돌린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리방안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일이 알아서 날아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotStart 그거를 총을 쏘고 난 다음에 풀어줬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로테이션을 빠르게 하고, 총알이 나가면 롯 스타트를 false로 만들어서 그 떄 돌 수 있게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불릿이 알아서 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜리게이트를 통해서 애니메이션이벤트를 갖다 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon에서 만들어서 무기의 함수를 생성해서 무기에서 프리팹을 생성</t>
+  </si>
+  <si>
+    <t>스킬공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 애니메이션 이벤트 스크립트를 통해 인스턴스 생성하고, 총알은 알아서 나가는 형태로.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오브젝트가 켜져 있는지 안 켜져 있는지 확인하는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본상태일 때만 처리를 받는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리 끝나면 기본상태로 돌린다.</t>
+  </si>
+  <si>
+    <t>히어로 건들지 않고 비어두고 일반공격, 스킬은 자기 캐릭터 파일에서 처리할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬, 일반공격 동시진행은 캐릭터마다 알아서 처리할 것 / 상태페이즈 자유롭게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환이형은 몬스터쪽으로 넘어갈 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false 줘서 처리하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 금환이형으로 맞춰서 바꾸기, 스킬구현</t>
+  </si>
+  <si>
+    <t>일요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람들은 일반공격 금환이형 코드에 맞춰서 진행 / 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브는 무조건 풀 받고, 작업하자!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,6 +1021,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -925,93 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,28 +1487,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -1373,7 +1516,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1387,7 +1530,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -1397,7 +1540,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -1407,7 +1550,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -1439,7 +1582,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1449,7 +1592,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1484,584 +1627,584 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3276,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F99D0-9C4E-4D0C-9349-4DA98637E5BF}">
   <dimension ref="C7:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3307,66 +3450,66 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
@@ -3385,42 +3528,42 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
@@ -3431,324 +3574,1012 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="37"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="38"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="38"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="39"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="39"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="40"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="48"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="47"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="48"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="47"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="31"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="47"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="48"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="47"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="48"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="47"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="48"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="47"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="48"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="47"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="47"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="49"/>
-      <c r="D44" s="51" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="47"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="48"/>
-      <c r="D49" s="42" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="32"/>
+      <c r="D49" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="47"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="48"/>
-      <c r="D50" s="42" t="s">
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="31"/>
+      <c r="L49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="32"/>
+      <c r="D50" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="48"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="47"/>
-    </row>
-    <row r="52" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="49"/>
-      <c r="D52" s="50" t="s">
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="32"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="33"/>
+      <c r="D52" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25412A-9976-4F39-8D46-62C3E76AA42F}">
+  <dimension ref="C3:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="32"/>
+      <c r="D8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
+      <c r="D9" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
+      <c r="D10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="32"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="32"/>
+      <c r="D12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C13" s="32"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="32"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="32"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="32"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20" s="32"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="32"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="32"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27" s="32"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28" s="32"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29" s="32"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="32"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
+    </row>
+    <row r="36" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="32"/>
+      <c r="D38" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="32"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="32"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="32"/>
+      <c r="D41" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="32"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="31"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="32"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="32"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="31"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="32"/>
+      <c r="D45" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="31"/>
+    </row>
+    <row r="46" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubWork3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272965B-6BCE-4E72-9D8C-5A3F13048719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F941B-7FE4-4781-A801-7337E9F1B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21645" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -3903,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25412A-9976-4F39-8D46-62C3E76AA42F}">
   <dimension ref="C3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubWork3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F941B-7FE4-4781-A801-7337E9F1B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF6AD1-881A-4859-8622-18D90DEFC375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21645" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="추가 의견" sheetId="4" r:id="rId4"/>
     <sheet name="0714 회의내용" sheetId="5" r:id="rId5"/>
     <sheet name="7월 19일" sheetId="6" r:id="rId6"/>
+    <sheet name="7월 26일" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +659,112 @@
   </si>
   <si>
     <t>깃허브는 무조건 풀 받고, 작업하자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환 유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬공격 기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격, 스킬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불렛에서 몬스터 Hit 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 어떻게 쫓아가는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 어떻게 하는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트만 백업해서 쓸 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환이형이 틀 짜고 작업시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이즈 3개로 나누고, 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이즈3: 25% ~ 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이즈2: 50% ~ 25% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공겸텀, 쫓아가는 텀 떨어지게 하기 | 일반공격, 스킬 공격 간혈적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">페이즈1: 100% ~ 50% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들 쫓아가면서 조금 얼타면서 일반공격만</t>
+  </si>
+  <si>
+    <t>일반공격 + 스킬공격 + 스페셜어택, 계속 쫓아가고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 크기보다 일반몬스터, 보스몬스터가 들어가서 활동반경이 작은 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닿을 때 데미지 다는 건 없애보자 다음 회의 때 토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2명이서만 보스 AI 작업하고, 한 명은 아이템 작업을 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석, 금환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일감분배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 후 아이템(일반 몬스터 잡으면 드랍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격, 스킬, 스페셜스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 게이지(피버게이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희 abstrac으로 바꿔서 올리고, 캐릭터 받아서 쓰는 걸로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,8 +2330,8 @@
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48:G93"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3901,20 +4008,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25412A-9976-4F39-8D46-62C3E76AA42F}">
-  <dimension ref="C3:R46"/>
+  <dimension ref="C6:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="6" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" s="37" t="s">
         <v>123</v>
@@ -4439,27 +4545,69 @@
       <c r="Q32" s="35"/>
       <c r="R32" s="36"/>
     </row>
-    <row r="36" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="32"/>
+      <c r="D35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="32"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="31"/>
+    </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="32"/>
       <c r="D38" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="15"/>
+        <v>151</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -4472,7 +4620,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -4485,7 +4633,9 @@
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" s="32"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -4496,12 +4646,8 @@
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" s="32"/>
-      <c r="D41" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -4512,10 +4658,10 @@
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" s="32"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="D42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -4524,59 +4670,186 @@
       <c r="K42" s="15"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="32"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="31"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="32"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="31"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="32"/>
-      <c r="D45" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="33"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35" t="s">
+    <row r="43" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA04F5-E277-4D04-9663-2227AF0E9D3D}">
+  <dimension ref="B3:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubWork3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF6AD1-881A-4859-8622-18D90DEFC375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF52369-2725-4E14-A133-5BEDE23BC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -29,21 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +756,20 @@
   </si>
   <si>
     <t>건희 abstrac으로 바꿔서 올리고, 캐릭터 받아서 쓰는 걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI &amp; 이펙트 고를 것 리스트
+- 부활 위치 이펙트
+- 부활 이펙트
+- 포탈
+- 포탈 탈 때 이펙트
+- 캐릭터 HP, 스태미나, 피버 게이지 
+- 점프대 이펙트
+- 아이템 습득 시 이펙트 (피 회복, 스태미나 회복, 피버 회복, 시간 멈추기, 무적 이펙트)
+- 몬스터 피격 이펙트
+- 보스 몬스터 피격 이펙트
+- 승리 시 이펙트 &amp; 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,6 +1267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3117,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,9 +3164,13 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="2:4" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>182</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3519,6 +3531,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4695,7 +4708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA04F5-E277-4D04-9663-2227AF0E9D3D}">
   <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF52369-2725-4E14-A133-5BEDE23BC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABBED1F-D364-4384-815A-AB9026AAAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="0714 회의내용" sheetId="5" r:id="rId5"/>
     <sheet name="7월 19일" sheetId="6" r:id="rId6"/>
     <sheet name="7월 26일" sheetId="7" r:id="rId7"/>
+    <sheet name="8월 3일" sheetId="9" r:id="rId8"/>
+    <sheet name="리소스 당신의 선택은" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="252">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,12 +774,280 @@
 - 승리 시 이펙트 &amp; 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>금환, 유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 거의 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 구조 잡았고, 세부 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 거의 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;내일 회의 내용&gt;       </t>
+  </si>
+  <si>
+    <t>1. 현재 진행 상황 리뷰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 인게임 ui (리소스, 레이아웃 구상) </t>
+  </si>
+  <si>
+    <t>3. work report 추가의견 타 리소스 정리(오브젝트 이펙트관련)</t>
+  </si>
+  <si>
+    <t>4. 게임 매니져(게임 모드) 관련</t>
+  </si>
+  <si>
+    <t>5. 지금 완료 된 구현 사항 중 아쉽거나 추가 폴리싱 필요한 것들</t>
+  </si>
+  <si>
+    <t>6. 기타 의견</t>
+  </si>
+  <si>
+    <t>1. 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP, 스테미나, 피버게이지 위치 조정</t>
+  </si>
+  <si>
+    <t>카툰풍 게임 UI를 찾아보자 (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아서 내일 다시 얘기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프대 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 아이템 먹을시 날아가는 문제(버그)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트이펙트: 공통함수에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어: 히트에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터: 불렛 맞은 부위에서 피 튀기게 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character.cs의 hit 함수에서 처리함 (아직 안 됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 피격 (이펙트만 바꿔주면 됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환이형 BoxManbullet.cs Create Hit Effet 함수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞은 부위에서 불렛에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트를 어떻게 정할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 리소스들 분배하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트를 만들어 놓고 일감 분배해서 리스트를 만들어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 통화로 체크해서 만들어 갑시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 3일 저녁까지 정해봅시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한시간을 만들어서 할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 종료시, 씬 이동할 때 카메라 무빙, 업데이트문을 상태로 나눠서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이면 안 되는 상태, 움직여도 되는 상태로 나누어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타의견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과화면: WIN LOSE 씬으로 만들자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 안 넘게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 카툰풍 게임 UI 자료 찾아서 내일까지 올려줄 것(HP, 스테미나 등 배치도) 인당 최소 2개씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 오늘까지 WorkReport 리스트 보고 이펙트 후보군 찾을 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부쉬 투명처리 -&gt; 선생님께 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리: 8월 18일까지는 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 HP바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 ST바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몹 HP바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI &amp; EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포탈 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트로 할지 이미지나 UI로 할지 안정해 졌으니 그냥 찾는거 기재하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFEFCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 이펙트(공통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패배 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 이펙트(출발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 이펙트(도착)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프대 이펙트(도착)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프대 이펙트(출발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,8 +1097,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1268,8 +1564,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,6 +1606,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>185078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="12182475"/>
+          <a:ext cx="2552700" cy="1413803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,28 +1971,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -1631,7 +2000,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1645,7 +2014,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -1655,7 +2024,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -1665,7 +2034,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -1697,7 +2066,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1707,7 +2076,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1732,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:O19"/>
     </sheetView>
   </sheetViews>
@@ -1742,584 +2111,584 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="48"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="51"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="51"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="51"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="51"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="51"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="51"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3125,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3168,7 +3537,7 @@
       <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="38" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="2"/>
@@ -4708,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA04F5-E277-4D04-9663-2227AF0E9D3D}">
   <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -4868,4 +5237,1104 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9572FAA-7C66-4D4F-BC41-BC4C15F8D707}">
+  <dimension ref="B3:E75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5DB779-E67C-4D32-B421-19841626984F}">
+  <dimension ref="B3:O61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55"/>
+    <col min="3" max="3" width="13.875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="55"/>
+    <col min="8" max="8" width="39.25" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="K14" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="60"/>
+      <c r="C54" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="60"/>
+      <c r="C58" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K3:O4"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B30:B61"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B6:B29"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K14:K17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABBED1F-D364-4384-815A-AB9026AAAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924B919-9A16-4D92-89F9-AF17A6798404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="253">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,6 +1040,10 @@
   </si>
   <si>
     <t>lose UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,6 +1520,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,32 +1583,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,28 +1984,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -2000,7 +2013,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2014,7 +2027,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -2024,7 +2037,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -2034,7 +2047,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -2066,7 +2079,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2076,7 +2089,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
@@ -2111,584 +2124,584 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="51"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="51"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="51"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="51"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="51"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="51"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="54"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5475,846 +5488,1028 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5DB779-E67C-4D32-B421-19841626984F}">
-  <dimension ref="B3:O61"/>
+  <dimension ref="B3:R61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5:O5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="9" style="55"/>
-    <col min="3" max="3" width="13.875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="55"/>
-    <col min="8" max="8" width="39.25" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="3.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9" style="39"/>
+    <col min="3" max="3" width="13.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9" style="39"/>
+    <col min="11" max="11" width="39.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="58" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="H5" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="J5" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="N5" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="O5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="P5" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="Q5" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="R5" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="N6" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="O6" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="59" t="s">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="59" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="64"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="59" t="s">
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="59" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="64"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="59" t="s">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="59" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="65"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
+      <c r="C10" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="61" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="N10" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="O10" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="59" t="s">
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="59" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="64"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="59" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="59" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="64"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="59" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="59" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="65"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60" t="s">
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="K14" s="60" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="N14" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="O14" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="59" t="s">
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="59" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59" t="s">
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="59" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59" t="s">
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="59" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60" t="s">
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="64"/>
+      <c r="C18" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="59" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="59" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="64"/>
+      <c r="C26" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="59" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="59" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="59" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59" t="s">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="60"/>
-      <c r="C34" s="60" t="s">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="64"/>
+      <c r="C34" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="59" t="s">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="59" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="60"/>
-      <c r="C38" s="60" t="s">
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="64"/>
+      <c r="C38" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="59" t="s">
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59" t="s">
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="59" t="s">
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="60"/>
-      <c r="C42" s="60" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="64"/>
+      <c r="C42" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="59" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="59" t="s">
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="59" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="60"/>
-      <c r="C46" s="60" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="64"/>
+      <c r="C46" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="59" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="59" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="59" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
-      <c r="C50" s="60" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="64"/>
+      <c r="C50" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="59" t="s">
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="59" t="s">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="59" t="s">
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="60"/>
-      <c r="C54" s="60" t="s">
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="64"/>
+      <c r="C54" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="59" t="s">
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="59" t="s">
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="59" t="s">
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="60"/>
-      <c r="C58" s="60" t="s">
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="64"/>
+      <c r="C58" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="59" t="s">
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="59" t="s">
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="59" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K3:O4"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C46:C49"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="B30:B61"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -6325,13 +6520,14 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B6:B29"/>
+    <mergeCell ref="B3:K4"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="B6:B29"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924B919-9A16-4D92-89F9-AF17A6798404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E77FA-1AE1-40C8-A65F-1BF48BE11EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1125" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="254">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,6 +1044,11 @@
   </si>
   <si>
     <t>경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 된 대상 
+인디케이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1402,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,26 +1588,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5488,11 +5505,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5DB779-E67C-4D32-B421-19841626984F}">
-  <dimension ref="B3:R61"/>
+  <dimension ref="B3:R65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:K61"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -5506,44 +5523,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="60" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -5593,10 +5610,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="60" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -5608,10 +5625,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="66" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -5622,8 +5639,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -5633,8 +5650,8 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="64"/>
-      <c r="N7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -5643,8 +5660,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5654,8 +5671,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="64"/>
-      <c r="N8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5664,8 +5681,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5675,8 +5692,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="65"/>
-      <c r="N9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5685,8 +5702,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="60" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -5698,10 +5715,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="66" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -5712,8 +5729,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5723,8 +5740,8 @@
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="64"/>
-      <c r="N11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5733,8 +5750,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5744,8 +5761,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="64"/>
-      <c r="N12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5771,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5765,8 +5782,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="65"/>
-      <c r="N13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5775,8 +5792,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="60" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -5789,7 +5806,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="66" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -5800,8 +5817,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -5812,7 +5829,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
-      <c r="N15" s="61"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -5821,8 +5838,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5833,7 +5850,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
-      <c r="N16" s="61"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5842,8 +5859,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5854,7 +5871,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="61"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5863,8 +5880,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="60" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -5879,8 +5896,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -5893,8 +5910,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -5907,8 +5924,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -5921,8 +5938,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="60" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -5937,8 +5954,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -5951,8 +5968,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -5965,8 +5982,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -5979,8 +5996,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="63" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="60" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -5995,8 +6012,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -6009,8 +6026,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -6023,8 +6040,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -6037,11 +6054,9 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>240</v>
+      <c r="B30" s="68"/>
+      <c r="C30" s="70" t="s">
+        <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>230</v>
@@ -6055,8 +6070,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -6069,8 +6084,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -6083,8 +6098,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -6097,9 +6112,11 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="63" t="s">
-        <v>244</v>
+      <c r="B34" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>230</v>
@@ -6113,8 +6130,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -6127,8 +6144,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -6141,8 +6158,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -6155,9 +6172,9 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="63" t="s">
-        <v>245</v>
+      <c r="B38" s="61"/>
+      <c r="C38" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>230</v>
@@ -6171,8 +6188,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -6185,8 +6202,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -6199,8 +6216,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -6213,9 +6230,9 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="63" t="s">
-        <v>247</v>
+      <c r="B42" s="61"/>
+      <c r="C42" s="60" t="s">
+        <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>230</v>
@@ -6229,8 +6246,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -6243,8 +6260,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -6257,8 +6274,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -6271,9 +6288,9 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="64"/>
-      <c r="C46" s="63" t="s">
-        <v>246</v>
+      <c r="B46" s="61"/>
+      <c r="C46" s="60" t="s">
+        <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>230</v>
@@ -6287,8 +6304,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -6301,8 +6318,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -6315,8 +6332,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -6329,9 +6346,9 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="64"/>
-      <c r="C50" s="63" t="s">
-        <v>241</v>
+      <c r="B50" s="61"/>
+      <c r="C50" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>230</v>
@@ -6345,8 +6362,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -6359,8 +6376,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -6373,8 +6390,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -6387,9 +6404,9 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="64"/>
-      <c r="C54" s="63" t="s">
-        <v>242</v>
+      <c r="B54" s="61"/>
+      <c r="C54" s="60" t="s">
+        <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
         <v>230</v>
@@ -6403,8 +6420,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -6417,8 +6434,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -6431,8 +6448,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -6445,9 +6462,9 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="64"/>
-      <c r="C58" s="63" t="s">
-        <v>243</v>
+      <c r="B58" s="61"/>
+      <c r="C58" s="60" t="s">
+        <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
         <v>230</v>
@@ -6461,8 +6478,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -6475,8 +6492,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -6489,8 +6506,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -6502,32 +6519,91 @@
       <c r="J61" s="41"/>
       <c r="K61" s="41"/>
     </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="61"/>
+      <c r="C62" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C58:C61"/>
+  <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B30:B61"/>
+    <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
     <mergeCell ref="B3:K4"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="K10:K13"/>
-    <mergeCell ref="B6:B29"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C62:C65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E77FA-1AE1-40C8-A65F-1BF48BE11EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6E8CB-D67E-43B5-AB6C-65788F363C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1125" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="810" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -1588,6 +1588,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1597,29 +1618,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5508,8 +5508,8 @@
   <dimension ref="B3:R65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D33"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -5517,50 +5517,58 @@
     <col min="1" max="1" width="3.625" style="39" customWidth="1"/>
     <col min="2" max="2" width="9" style="39"/>
     <col min="3" max="3" width="13.875" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9" style="39"/>
+    <col min="4" max="4" width="9" style="39"/>
+    <col min="5" max="5" width="15.625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9" style="39"/>
+    <col min="7" max="7" width="15.625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9" style="39"/>
+    <col min="9" max="9" width="15.625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="9" style="39"/>
     <col min="11" max="11" width="39.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="39"/>
+    <col min="12" max="15" width="9" style="39"/>
+    <col min="16" max="18" width="15.625" style="39" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -5609,11 +5617,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="67" t="s">
+    <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="67" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -5625,10 +5633,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="61" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -5638,9 +5646,9 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="68"/>
-      <c r="C7" s="61"/>
+    <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -5650,8 +5658,8 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="61"/>
-      <c r="N7" s="66"/>
+      <c r="K7" s="68"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -5659,9 +5667,9 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="68"/>
-      <c r="C8" s="61"/>
+    <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5671,8 +5679,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="61"/>
-      <c r="N8" s="66"/>
+      <c r="K8" s="68"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5680,9 +5688,9 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="62"/>
+    <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5692,8 +5700,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="62"/>
-      <c r="N9" s="66"/>
+      <c r="K9" s="69"/>
+      <c r="N9" s="61"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5701,9 +5709,9 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="60" t="s">
+    <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="67" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -5715,10 +5723,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="61" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -5728,9 +5736,9 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="68"/>
-      <c r="C11" s="61"/>
+    <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5740,8 +5748,8 @@
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="61"/>
-      <c r="N11" s="66"/>
+      <c r="K11" s="68"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5749,9 +5757,9 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5769,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="61"/>
-      <c r="N12" s="66"/>
+      <c r="K12" s="68"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5770,9 +5778,9 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
-      <c r="C13" s="62"/>
+    <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5782,8 +5790,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="62"/>
-      <c r="N13" s="66"/>
+      <c r="K13" s="69"/>
+      <c r="N13" s="61"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5791,9 +5799,9 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
-      <c r="C14" s="60" t="s">
+    <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="67" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -5806,7 +5814,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="66" t="s">
+      <c r="N14" s="61" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -5816,9 +5824,9 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="68"/>
-      <c r="C15" s="61"/>
+    <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -5829,7 +5837,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
-      <c r="N15" s="66"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -5837,9 +5845,9 @@
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="68"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5850,7 +5858,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
-      <c r="N16" s="66"/>
+      <c r="N16" s="61"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5858,9 +5866,9 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="62"/>
+    <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5871,7 +5879,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="66"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5879,9 +5887,9 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
-      <c r="C18" s="60" t="s">
+    <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="63"/>
+      <c r="C18" s="67" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -5895,9 +5903,9 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
-      <c r="C19" s="61"/>
+    <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -5909,9 +5917,9 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="61"/>
+    <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -5923,9 +5931,9 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
-      <c r="C21" s="62"/>
+    <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -5937,9 +5945,9 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="60" t="s">
+    <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="63"/>
+      <c r="C22" s="67" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -5953,9 +5961,9 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="68"/>
-      <c r="C23" s="61"/>
+    <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="63"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -5967,9 +5975,9 @@
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="68"/>
-      <c r="C24" s="61"/>
+    <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -5981,9 +5989,9 @@
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
-      <c r="C25" s="62"/>
+    <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -5995,9 +6003,9 @@
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="60" t="s">
+    <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="63"/>
+      <c r="C26" s="67" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -6011,9 +6019,9 @@
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="61"/>
+    <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -6025,9 +6033,9 @@
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="61"/>
+    <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="63"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -6039,9 +6047,9 @@
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="62"/>
+    <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -6053,9 +6061,9 @@
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="70" t="s">
+    <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="65" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -6069,9 +6077,9 @@
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+    <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -6083,9 +6091,9 @@
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+    <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -6097,9 +6105,9 @@
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+    <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -6111,11 +6119,11 @@
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="60" t="s">
+    <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="67" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -6129,9 +6137,9 @@
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+    <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -6143,9 +6151,9 @@
       <c r="J35" s="41"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+    <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -6157,9 +6165,9 @@
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
+    <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -6171,9 +6179,9 @@
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
-      <c r="C38" s="60" t="s">
+    <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="68"/>
+      <c r="C38" s="67" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -6187,9 +6195,9 @@
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
+    <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -6201,9 +6209,9 @@
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
+    <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -6215,9 +6223,9 @@
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
+    <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -6229,9 +6237,9 @@
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
-      <c r="C42" s="60" t="s">
+    <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="68"/>
+      <c r="C42" s="67" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -6245,9 +6253,9 @@
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
+    <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -6259,9 +6267,9 @@
       <c r="J43" s="41"/>
       <c r="K43" s="41"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+    <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -6273,9 +6281,9 @@
       <c r="J44" s="41"/>
       <c r="K44" s="41"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
+    <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -6287,9 +6295,9 @@
       <c r="J45" s="41"/>
       <c r="K45" s="41"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="61"/>
-      <c r="C46" s="60" t="s">
+    <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="68"/>
+      <c r="C46" s="67" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -6303,9 +6311,9 @@
       <c r="J46" s="41"/>
       <c r="K46" s="41"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
+    <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -6317,9 +6325,9 @@
       <c r="J47" s="41"/>
       <c r="K47" s="41"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+    <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -6331,9 +6339,9 @@
       <c r="J48" s="41"/>
       <c r="K48" s="41"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
+    <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -6345,9 +6353,9 @@
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
-      <c r="C50" s="60" t="s">
+    <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="68"/>
+      <c r="C50" s="67" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -6361,9 +6369,9 @@
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
+    <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -6375,9 +6383,9 @@
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
+    <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -6389,9 +6397,9 @@
       <c r="J52" s="41"/>
       <c r="K52" s="41"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
+    <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -6403,9 +6411,9 @@
       <c r="J53" s="41"/>
       <c r="K53" s="41"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="61"/>
-      <c r="C54" s="60" t="s">
+    <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="68"/>
+      <c r="C54" s="67" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -6419,9 +6427,9 @@
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+    <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -6433,9 +6441,9 @@
       <c r="J55" s="41"/>
       <c r="K55" s="41"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+    <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -6447,9 +6455,9 @@
       <c r="J56" s="41"/>
       <c r="K56" s="41"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
+    <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -6461,9 +6469,9 @@
       <c r="J57" s="41"/>
       <c r="K57" s="41"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="60" t="s">
+    <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="68"/>
+      <c r="C58" s="67" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -6477,9 +6485,9 @@
       <c r="J58" s="41"/>
       <c r="K58" s="41"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+    <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -6491,9 +6499,9 @@
       <c r="J59" s="41"/>
       <c r="K59" s="41"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+    <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -6505,9 +6513,9 @@
       <c r="J60" s="41"/>
       <c r="K60" s="41"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
+    <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -6519,9 +6527,9 @@
       <c r="J61" s="41"/>
       <c r="K61" s="41"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="61"/>
-      <c r="C62" s="60" t="s">
+    <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="68"/>
+      <c r="C62" s="67" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -6535,9 +6543,9 @@
       <c r="J62" s="41"/>
       <c r="K62" s="41"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
+    <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -6549,9 +6557,9 @@
       <c r="J63" s="41"/>
       <c r="K63" s="41"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+    <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -6563,9 +6571,9 @@
       <c r="J64" s="41"/>
       <c r="K64" s="41"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
+    <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -6579,13 +6587,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -6596,14 +6597,21 @@
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="C58:C61"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6E8CB-D67E-43B5-AB6C-65788F363C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="810" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="810" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="280">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,11 +1050,114 @@
 인디케이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Aura/AuraRing/AuraRingLight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Circles/Circle01_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Circles/Circle01_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Aura/AuraRing/AuraRingArcane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Ice/CFX3_Ice_Shiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트로 할지 이미지나 UI로 할지 안정해 졌으니 그냥 찾는거 기재하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetStore에서 찾아본거</t>
+  </si>
+  <si>
+    <t>프리팹이 없어서 씬에서 프리팹으로 가져와됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetStore에서 찾아본거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹이 없어서 씬에서 프리팹으로 가져와됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹이 없어서 씬에서 프리팹으로 가져와됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Hits/Hit01_life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_ResurrectionLight_Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Magic Misc/CFX3_MagicAura_B_Runic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Ice/CFX3_Ice_Shiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Magic Dark/CFX3_DarkMagicAura_B_Runic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Projectiles/Proj01_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Casts/Cast02_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Magic Misc/CFX3_VortexTornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/Tornado Variants/CFX3_Tornado_Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Magic Dark/CFX3_DarkMagicAura_B_Runic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_Blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Projectiles/Proj01_prismatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Rain/CFX2_Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1588,6 +1690,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1608,15 +1719,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1658,7 +1760,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,6 +1784,3465 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="11049000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="11049000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="11049000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="15621000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="15621000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="15621000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="20193000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="20193000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="20193000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="24765000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="24765000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="24765000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="33909000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="33909000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="33909000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="38481000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="38481000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="38481000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="43053000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="43053000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="47625000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="47625000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="47625000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="52197000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="52197000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="52197000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="56769000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="56769000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="56769000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="61341000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="61341000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="61341000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="65913000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="65913000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="65913000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15259050" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449675" y="1905000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15259050" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449675" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="12192000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15259050" y="12192000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449675" y="12192000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="29337000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="29337000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="직사각형 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="29337000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4581525" y="6477000"/>
+          <a:ext cx="3762375" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="6477000"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1983,7 +5544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2128,7 +5689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
@@ -2733,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3513,7 +7074,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B2:I30"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3521,7 +7082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3935,7 +7496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F99D0-9C4E-4D0C-9349-4DA98637E5BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -4419,7 +7980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C25412A-9976-4F39-8D46-62C3E76AA42F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5104,7 +8665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA04F5-E277-4D04-9663-2227AF0E9D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5270,7 +8831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9572FAA-7C66-4D4F-BC41-BC4C15F8D707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -5504,12 +9065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5DB779-E67C-4D32-B421-19841626984F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -5531,44 +9092,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="60" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -5618,10 +9179,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="60" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -5636,7 +9197,7 @@
       <c r="K6" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="64" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -5647,19 +9208,25 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="41" t="s">
+        <v>254</v>
+      </c>
       <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="H7" s="41" t="s">
+        <v>256</v>
+      </c>
       <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="68"/>
-      <c r="N7" s="61"/>
+      <c r="J7" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -5668,8 +9235,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5679,8 +9246,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="68"/>
-      <c r="N8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -5689,8 +9256,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5700,8 +9267,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="69"/>
-      <c r="N9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5710,8 +9277,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="60" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -5724,9 +9291,9 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="N10" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10" s="64" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -5737,19 +9304,25 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>257</v>
+      </c>
       <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>258</v>
+      </c>
       <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="68"/>
-      <c r="N11" s="61"/>
+      <c r="J11" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -5758,8 +9331,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5769,8 +9342,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="68"/>
-      <c r="N12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="N12" s="64"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -5779,8 +9352,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5790,8 +9363,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="69"/>
-      <c r="N13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -5800,8 +9373,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="60" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -5814,7 +9387,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="64" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -5825,19 +9398,25 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>262</v>
+      </c>
       <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>261</v>
+      </c>
       <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="J15" s="41" t="s">
+        <v>265</v>
+      </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="61"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -5846,8 +9425,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5858,7 +9437,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
-      <c r="N16" s="61"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -5867,8 +9446,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5879,7 +9458,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="61"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -5888,8 +9467,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="60" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -5904,22 +9483,26 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>260</v>
+      </c>
       <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>263</v>
+      </c>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -5932,8 +9515,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -5946,8 +9529,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="60" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -5962,22 +9545,28 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>263</v>
+      </c>
       <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>264</v>
+      </c>
       <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="41" t="s">
+        <v>264</v>
+      </c>
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -5990,8 +9579,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -6004,8 +9593,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="60" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -6020,22 +9609,26 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="F27" s="41" t="s">
+        <v>261</v>
+      </c>
       <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>266</v>
+      </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -6048,8 +9641,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -6062,8 +9655,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="68" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -6078,8 +9671,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -6092,8 +9685,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +9699,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -6120,10 +9713,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="60" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -6138,22 +9731,28 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="H35" s="41" t="s">
+        <v>268</v>
+      </c>
       <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="J35" s="41" t="s">
+        <v>269</v>
+      </c>
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -6166,8 +9765,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -6180,8 +9779,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="68"/>
-      <c r="C38" s="67" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="60" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -6196,22 +9795,28 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="F39" s="41" t="s">
+        <v>266</v>
+      </c>
       <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="H39" s="41" t="s">
+        <v>270</v>
+      </c>
       <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="J39" s="41" t="s">
+        <v>271</v>
+      </c>
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -6224,8 +9829,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -6238,8 +9843,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="67" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42" s="60" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -6254,22 +9859,28 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="F43" s="41" t="s">
+        <v>263</v>
+      </c>
       <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="H43" s="41" t="s">
+        <v>258</v>
+      </c>
       <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="J43" s="41" t="s">
+        <v>276</v>
+      </c>
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -6282,8 +9893,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -6296,8 +9907,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="61"/>
+      <c r="C46" s="60" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -6312,22 +9923,28 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
+      <c r="F47" s="41" t="s">
+        <v>272</v>
+      </c>
       <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="H47" s="41" t="s">
+        <v>273</v>
+      </c>
       <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="J47" s="41" t="s">
+        <v>274</v>
+      </c>
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -6340,8 +9957,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -6354,8 +9971,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="67" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="60" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -6370,22 +9987,26 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
+      <c r="F51" s="41" t="s">
+        <v>272</v>
+      </c>
       <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>275</v>
+      </c>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -6398,8 +10019,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -6412,8 +10033,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="68"/>
-      <c r="C54" s="67" t="s">
+      <c r="B54" s="61"/>
+      <c r="C54" s="60" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -6428,13 +10049,15 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
+      <c r="F55" s="41" t="s">
+        <v>277</v>
+      </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
@@ -6442,8 +10065,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -6456,8 +10079,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -6470,8 +10093,8 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="67" t="s">
+      <c r="B58" s="61"/>
+      <c r="C58" s="60" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -6486,13 +10109,15 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="41" t="s">
+        <v>278</v>
+      </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
@@ -6500,8 +10125,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -6514,8 +10139,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -6528,8 +10153,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="68"/>
-      <c r="C62" s="67" t="s">
+      <c r="B62" s="61"/>
+      <c r="C62" s="60" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -6544,13 +10169,15 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="F63" s="41" t="s">
+        <v>279</v>
+      </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
@@ -6558,8 +10185,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -6572,8 +10199,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -6587,6 +10214,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -6602,19 +10239,10 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ED75C0-3272-400D-A5C8-ABE81A3363F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="810" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="570" yWindow="825" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="289">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,11 +1154,55 @@
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Rain/CFX2_Rain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AssetStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st바, 피버 바, 몬스터 hp바  동시에 사용 가능해서 나머진 
+따로 찾지 않음 (개별로 찾으면 통일성 떨어질 듯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFX3Prefabs/MagicMisc/CFX3_Vortex_Ground_Outward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFXPrefabs/Misc/CFX_CircularLightWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFXPrefabs/Misc/CFX_Magical_Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFX3Prefabs/MagicMisc/CFX3_VortexTornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFXPrefabs/Smoke/CFX_GasLeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFXPrefabs/Smoke/CFX_SmokePuffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMOAssets/CartoonFX/
+CFXPrefabs/Smoke/CFX_SmokePuffsAlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1509,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,15 +1735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1722,6 +1758,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,7 +1808,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1854,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1873,7 +1927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1940,7 +2000,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2007,7 +2073,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2074,7 +2146,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2141,7 +2219,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2208,7 +2292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2275,7 +2365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2342,7 +2438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvPr id="10" name="직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2409,7 +2511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2476,7 +2584,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2543,7 +2657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2597,7 +2717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2664,7 +2790,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvPr id="15" name="직사각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2731,7 +2863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2798,7 +2936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvPr id="17" name="직사각형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2865,7 +3009,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2932,7 +3082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2986,7 +3142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvPr id="20" name="직사각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3053,7 +3215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3120,7 +3288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3187,7 +3361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvPr id="23" name="직사각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3254,7 +3434,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3321,7 +3507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvPr id="25" name="직사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3388,7 +3580,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvPr id="26" name="직사각형 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3455,7 +3653,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3509,7 +3713,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvPr id="29" name="직사각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3576,7 +3786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3643,7 +3859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvPr id="31" name="직사각형 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3710,7 +3932,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3777,7 +4005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvPr id="33" name="직사각형 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3844,7 +4078,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3898,7 +4138,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvPr id="35" name="직사각형 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3965,7 +4211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvPr id="36" name="직사각형 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4019,7 +4271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4073,7 +4331,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvPr id="38" name="직사각형 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4085,7 +4349,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4140,7 +4404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvPr id="39" name="직사각형 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4194,7 +4464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4248,7 +4524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4315,7 +4597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4369,7 +4657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvPr id="43" name="직사각형 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4423,7 +4717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvPr id="44" name="직사각형 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4477,7 +4777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4531,7 +4837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvPr id="46" name="직사각형 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4585,7 +4897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvPr id="47" name="직사각형 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4639,7 +4957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvPr id="48" name="직사각형 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4693,7 +5017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvPr id="49" name="직사각형 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4747,7 +5077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvPr id="50" name="직사각형 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4801,7 +5137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvPr id="51" name="직사각형 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4855,7 +5197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvPr id="52" name="직사각형 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4909,7 +5257,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvPr id="57" name="직사각형 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4963,7 +5317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvPr id="58" name="직사각형 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5017,7 +5377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="직사각형 58"/>
+        <xdr:cNvPr id="59" name="직사각형 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5071,7 +5437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="그림 59"/>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5126,7 +5498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvPr id="64" name="직사각형 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5193,7 +5571,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvPr id="65" name="직사각형 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5243,6 +5627,656 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>650099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>764400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFFF16C-0849-4EF6-BE1A-8311ACD0FEF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="11049000"/>
+          <a:ext cx="650099" cy="764400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1142999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1142368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E554317-F382-4D04-BC4B-B04BE81CD5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="12191999"/>
+          <a:ext cx="1200150" cy="1142369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AFDC82-F245-4477-94B3-94EA15DE17B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="12192000"/>
+          <a:ext cx="1200150" cy="1160145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1139507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9522B74-FC98-4E6E-8CE3-4AF57E3F1253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714624" y="7620000"/>
+          <a:ext cx="1181101" cy="1139507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1142999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A2D600-57BF-45CD-BE17-841FE05686DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705099" y="35051999"/>
+          <a:ext cx="1209675" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1123949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C9922B-6976-4EB9-8A8A-99451CD914E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4571999" y="35032949"/>
+          <a:ext cx="1200151" cy="1169731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8747AE4-336B-499F-980B-C33E6687D8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705099" y="39624000"/>
+          <a:ext cx="1209675" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="그림 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2960F20C-2D70-424F-8A28-1C0B0FBF462F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686049" y="44196000"/>
+          <a:ext cx="1209675" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1142998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1142999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CF9C20-D9D1-4AB3-BF40-DA57B9413924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2705100" y="48767998"/>
+          <a:ext cx="1200150" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="그림 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0B6456-10B5-4C4A-8A62-1AFED6FEB576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581524" y="48768000"/>
+          <a:ext cx="1209675" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5223BCFD-9A5C-46FD-9A5F-FC9AB09A1276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="53340000"/>
+          <a:ext cx="1190625" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FC49D2-64D5-4BA8-B2C1-AD2B0BA61621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="3048000"/>
+          <a:ext cx="1152525" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1104899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEC9A9E-40DE-4FD5-BEAF-0CF577FE9D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15259050" y="3133724"/>
+          <a:ext cx="1304925" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5544,7 +6578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5689,7 +6723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
@@ -6294,7 +7328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7074,7 +8108,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30"/>
+  <autoFilter ref="B2:I30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7082,7 +8116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:T76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7496,7 +8530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C7:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7980,7 +9014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C6:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8665,7 +9699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8831,7 +9865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -9065,12 +10099,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -9092,44 +10126,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="63" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -9179,10 +10213,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="70" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -9194,10 +10228,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="61" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -9208,8 +10242,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -9225,8 +10259,8 @@
       <c r="J7" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="N7" s="64"/>
+      <c r="K7" s="68"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -9235,8 +10269,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -9246,8 +10280,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="61"/>
-      <c r="N8" s="64"/>
+      <c r="K8" s="68"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -9256,8 +10290,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -9267,8 +10301,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="62"/>
-      <c r="N9" s="64"/>
+      <c r="K9" s="69"/>
+      <c r="N9" s="61"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -9277,8 +10311,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="70" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -9290,10 +10324,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="61" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -9304,8 +10338,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -9321,8 +10355,8 @@
       <c r="J11" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="N11" s="64"/>
+      <c r="K11" s="68"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -9331,19 +10365,21 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="66"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="F12" s="71" t="s">
+        <v>282</v>
+      </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="61"/>
-      <c r="N12" s="64"/>
+      <c r="K12" s="68"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -9352,8 +10388,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -9363,8 +10399,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="62"/>
-      <c r="N13" s="64"/>
+      <c r="K13" s="69"/>
+      <c r="N13" s="61"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -9373,8 +10409,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="66"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="70" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -9387,7 +10423,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="61" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -9398,8 +10434,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -9416,7 +10452,7 @@
         <v>265</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="64"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -9425,19 +10461,25 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>280</v>
+      </c>
       <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="H16" s="41" t="s">
+        <v>280</v>
+      </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="N16" s="64"/>
+      <c r="K16" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="N16" s="61"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -9446,8 +10488,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -9458,7 +10500,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="64"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -9467,8 +10509,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="66"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="70" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -9483,8 +10525,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -9501,8 +10543,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -9515,8 +10557,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -9529,8 +10571,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="70" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -9545,8 +10587,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -9565,8 +10607,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -9579,8 +10621,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -9593,8 +10635,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="70" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -9609,8 +10651,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -9627,8 +10669,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -9641,8 +10683,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -9655,8 +10697,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="65" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -9671,8 +10713,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -9685,8 +10727,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -9699,8 +10741,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -9713,10 +10755,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="70" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -9731,8 +10773,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -9751,22 +10793,26 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="F36" s="71" t="s">
+        <v>283</v>
+      </c>
       <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="H36" s="71" t="s">
+        <v>284</v>
+      </c>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -9779,8 +10825,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="70" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -9795,8 +10841,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -9815,13 +10861,15 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="F40" s="71" t="s">
+        <v>285</v>
+      </c>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
@@ -9829,8 +10877,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -9843,8 +10891,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="70" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -9859,8 +10907,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -9879,13 +10927,15 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="F44" s="71" t="s">
+        <v>285</v>
+      </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
@@ -9893,8 +10943,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -9907,8 +10957,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="61"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="70" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -9923,8 +10973,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -9943,22 +10993,26 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="F48" s="71" t="s">
+        <v>286</v>
+      </c>
       <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="H48" s="71" t="s">
+        <v>287</v>
+      </c>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -9971,8 +11025,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="61"/>
-      <c r="C50" s="60" t="s">
+      <c r="B50" s="68"/>
+      <c r="C50" s="70" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -9987,8 +11041,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -10005,13 +11059,15 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="F52" s="71" t="s">
+        <v>288</v>
+      </c>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
@@ -10019,8 +11075,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -10033,8 +11089,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="61"/>
-      <c r="C54" s="60" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="70" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -10049,8 +11105,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -10065,8 +11121,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -10079,8 +11135,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -10093,8 +11149,8 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="61"/>
-      <c r="C58" s="60" t="s">
+      <c r="B58" s="68"/>
+      <c r="C58" s="70" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -10109,8 +11165,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -10125,8 +11181,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -10139,8 +11195,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -10153,8 +11209,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="61"/>
-      <c r="C62" s="60" t="s">
+      <c r="B62" s="68"/>
+      <c r="C62" s="70" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -10169,8 +11225,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -10185,8 +11241,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -10199,8 +11255,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -10214,16 +11270,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -10239,6 +11285,16 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ED75C0-3272-400D-A5C8-ABE81A3363F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752E899-1CA6-4640-A628-F19B14CE44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="825" windowWidth="25455" windowHeight="13770" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="301">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,6 +1197,44 @@
     <t>Assets/Effect/JMOAssets/CartoonFX/
 CFXPrefabs/Smoke/CFX_SmokePuffsAlt</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/CFX_Magical_Source.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/CFX_SpikyAura_Character.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_SkyRays_Loop.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/Color Variants/CFX3_ResurrectionLight_Oval (Blue).prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Explosions/Firework Variants/CFX_Firework_Blue.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_Hit_Light_A_Ground.prefab</t>
+  </si>
+  <si>
+    <t>도착할 때는 이펙트 없는 게 나을 거 같음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 게 나을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_Blood.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_BloodHeavy.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_BloodPuddle.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Skull &amp; Ghosts Effects/CFX2_SkullRotate.prefab</t>
   </si>
 </sst>
 </file>
@@ -1687,6 +1725,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1735,6 +1776,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1758,18 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5987,8 +6025,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2801</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6271,6 +6309,446 @@
         <a:xfrm>
           <a:off x="15259050" y="3133724"/>
           <a:ext cx="1304925" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1138203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="그림 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F5DEC-1415-4BD7-A952-5DA13A1D061D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="36195000"/>
+          <a:ext cx="1204232" cy="1138203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="그림 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9826A97F-873A-426E-80F9-8C2DACF9F802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581526" y="36195000"/>
+          <a:ext cx="1190624" cy="1160609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1170214</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="그림 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A33390-02F2-4741-8852-9AB261746769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="36195000"/>
+          <a:ext cx="1170214" cy="1170214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3453</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="그림 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59081575-4839-4604-83C4-2A43F5E6D876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4595132" y="40767000"/>
+          <a:ext cx="1180471" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="그림 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A113B-F045-470E-8F9E-3E2522A3D0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6498771" y="40767000"/>
+          <a:ext cx="1149804" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="그림 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05992A0A-2B2A-4921-AC9F-9FA4F70403D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705101" y="40767001"/>
+          <a:ext cx="1217838" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1183822</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="그림 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DBB0B6-CAA0-4EB5-905E-101CE7E1F6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="59055000"/>
+          <a:ext cx="1183822" cy="1143280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1170214</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="그림 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D568226-F9E4-4671-850A-BA96E0CCE665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4576081" y="59055000"/>
+          <a:ext cx="1175658" cy="1170214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1129393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="그림 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A699FB-774E-4A76-869C-8539D8DA9510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457949" y="59055000"/>
+          <a:ext cx="1190626" cy="1129393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="그림 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1E813E-64D3-4CF4-99C6-E2519524DB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705101" y="68199000"/>
+          <a:ext cx="1204232" cy="1188125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6596,28 +7074,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -6625,7 +7103,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6639,7 +7117,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -6649,7 +7127,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -6659,7 +7137,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -6691,7 +7169,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6701,7 +7179,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
@@ -6736,584 +7214,584 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="60"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="57"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="57"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="57"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="59"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10102,7 +10580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6:K9"/>
     </sheetView>
@@ -10126,44 +10604,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="60" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -10213,10 +10691,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="61" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -10228,10 +10706,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="65" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -10242,8 +10720,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10259,8 +10737,8 @@
       <c r="J7" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="N7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10269,8 +10747,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10280,8 +10758,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="68"/>
-      <c r="N8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10290,8 +10768,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10301,8 +10779,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="69"/>
-      <c r="N9" s="61"/>
+      <c r="K9" s="63"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10311,8 +10789,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="61" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -10324,10 +10802,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="65" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -10338,8 +10816,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10355,8 +10833,8 @@
       <c r="J11" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="N11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10365,21 +10843,21 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="41"/>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="44" t="s">
         <v>282</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="68"/>
-      <c r="N12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10388,8 +10866,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10399,8 +10877,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="69"/>
-      <c r="N13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10409,8 +10887,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="61" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -10423,7 +10901,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="65" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -10434,8 +10912,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10452,7 +10930,7 @@
         <v>265</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="61"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10461,8 +10939,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10476,10 +10954,10 @@
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="N16" s="61"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10488,8 +10966,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10500,7 +10978,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="61"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10509,8 +10987,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="61" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -10525,8 +11003,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -10543,8 +11021,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -10557,8 +11035,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -10571,8 +11049,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -10587,8 +11065,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -10607,8 +11085,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -10621,8 +11099,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -10635,8 +11113,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="70" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="61" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -10651,8 +11129,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -10669,8 +11147,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -10683,8 +11161,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -10697,8 +11175,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="69" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -10713,8 +11191,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -10727,8 +11205,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -10741,8 +11219,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -10755,10 +11233,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="61" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -10773,8 +11251,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -10793,17 +11271,17 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="41"/>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="44" t="s">
         <v>283</v>
       </c>
       <c r="G36" s="41"/>
-      <c r="H36" s="71" t="s">
+      <c r="H36" s="44" t="s">
         <v>284</v>
       </c>
       <c r="I36" s="41"/>
@@ -10811,22 +11289,28 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="F37" s="41" t="s">
+        <v>289</v>
+      </c>
       <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="H37" s="41" t="s">
+        <v>290</v>
+      </c>
       <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="J37" s="41" t="s">
+        <v>291</v>
+      </c>
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="68"/>
-      <c r="C38" s="70" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="61" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -10841,8 +11325,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -10861,13 +11345,13 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="41"/>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="44" t="s">
         <v>285</v>
       </c>
       <c r="G40" s="41"/>
@@ -10877,22 +11361,28 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="F41" s="41" t="s">
+        <v>292</v>
+      </c>
       <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="H41" s="41" t="s">
+        <v>293</v>
+      </c>
       <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="J41" s="41" t="s">
+        <v>294</v>
+      </c>
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="70" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="61" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -10907,8 +11397,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -10927,13 +11417,13 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="44" t="s">
         <v>285</v>
       </c>
       <c r="G44" s="41"/>
@@ -10943,12 +11433,14 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="41" t="s">
+        <v>295</v>
+      </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
@@ -10957,8 +11449,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="70" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="61" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -10973,8 +11465,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -10993,17 +11485,17 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E48" s="41"/>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="44" t="s">
         <v>286</v>
       </c>
       <c r="G48" s="41"/>
-      <c r="H48" s="71" t="s">
+      <c r="H48" s="44" t="s">
         <v>287</v>
       </c>
       <c r="I48" s="41"/>
@@ -11011,8 +11503,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -11025,8 +11517,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="70" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="61" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -11041,8 +11533,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -11059,13 +11551,13 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="41"/>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="44" t="s">
         <v>288</v>
       </c>
       <c r="G52" s="41"/>
@@ -11075,12 +11567,14 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="41" t="s">
+        <v>296</v>
+      </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
@@ -11089,8 +11583,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="68"/>
-      <c r="C54" s="70" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="61" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -11105,8 +11599,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -11121,8 +11615,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -11135,22 +11629,28 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="41" t="s">
+        <v>297</v>
+      </c>
       <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="H57" s="41" t="s">
+        <v>298</v>
+      </c>
       <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="J57" s="41" t="s">
+        <v>299</v>
+      </c>
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="68"/>
-      <c r="C58" s="70" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="61" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -11165,8 +11665,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -11181,8 +11681,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -11195,8 +11695,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -11209,8 +11709,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="68"/>
-      <c r="C62" s="70" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="61" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -11225,8 +11725,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -11241,8 +11741,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -11255,13 +11755,15 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
+      <c r="F65" s="41" t="s">
+        <v>300</v>
+      </c>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
@@ -11270,6 +11772,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -11285,16 +11797,6 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752E899-1CA6-4640-A628-F19B14CE44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277A685-F56B-4511-8976-239C9525E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="319">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,6 +1235,76 @@
   </si>
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Skull &amp; Ghosts Effects/CFX2_SkullRotate.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/MeshGlow/LifeMeshGlow</t>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Modular/spaklyFade</t>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Modular/Aura/SpinningStorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Modular/TwirlyPlasmaCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsenal/Effects/Prefabs/Aura/Legacy/Arcane/GroundArcane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료에셋 https://assetstore.unity.com/packages/2d/gui/icons/beautiful-progress-bar-free-194904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8달러/ https://assetstore.unity.com/packages/2d/gui/icons/fire-health-bar-148790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs(Mobile)/Expressions/CFXM2_Expression_Loving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Electric / CFX_ElectricityBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Circles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Ice/Nature/CFX3_Shield_Leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Pillars/Pillar01_sonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Pillars/Pillar01_prismatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsnal/Effects/Prefabs/Modular/SnowSmoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/MagicArsnal/Effects/Prefabs/Walls/Circular Wall/StormWallCircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/NeatWolf/Bundle03-MagicSpells/_Casts/Cast02_stars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Skill &amp;Ghosts Effect/CFXM2_Soul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전에 썼던 hp/mp바 포토샵 작업해야함..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1776,15 +1846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1808,6 +1869,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,8 +2411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="11049000"/>
-          <a:ext cx="1190625" cy="1143000"/>
+          <a:off x="2700618" y="11071412"/>
+          <a:ext cx="1187823" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6413,8 +6483,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1170214</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
@@ -6439,8 +6509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="36195000"/>
-          <a:ext cx="1170214" cy="1170214"/>
+          <a:off x="6443382" y="36217412"/>
+          <a:ext cx="1187824" cy="1170214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6755,6 +6825,1685 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>667871</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1172135</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1138518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BB401B-3F21-40BF-9D56-85B53B98B597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2684930" y="779930"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1183341</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1138518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="직사각형 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466B7CAF-C11C-4AF3-B35A-3A01B308FE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4567517" y="779930"/>
+          <a:ext cx="1187824" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="직사각형 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23631FF2-0495-4229-B569-EBC82EC8693E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707342" y="5340724"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2242</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1134036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2241</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1134036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="직사각형 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D0F8CB-8978-4919-8251-A4FADC3AAB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4574242" y="5347448"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1185583</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1140760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="직사각형 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1889FC-F43A-4327-AF6A-2F8AC33BD8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6441142" y="5354172"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="직사각형 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E160E0-F2F1-460B-B770-FC08E2A95594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707341" y="9935135"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>674594</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1134035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1178858</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1134035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="직사각형 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49C3C0D-02BA-460D-BED3-BF24081EDC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4563035" y="9919447"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681317</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2465294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>986117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="직사각형 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15527750-CD43-4E2B-AB38-D149EEBB5FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6441141" y="9937376"/>
+          <a:ext cx="4338918" cy="977153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679077</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1183341</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="직사각형 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0EF749-72BF-453A-944F-B42F5B5029FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696136" y="32772724"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1138517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1138517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="직사각형 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB36215A-9019-462F-A544-43E74B7AEDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4578723" y="32783929"/>
+          <a:ext cx="1187824" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1138518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1183342</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1138518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="직사각형 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5A0354-8523-41F0-8C1A-0D4477DE2916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="32783930"/>
+          <a:ext cx="1187824" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1183340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="직사각형 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDB36A9-6F7D-4C12-A0DC-FA0AEE71ACE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696135" y="37344724"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13446</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="직사각형 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B56812B-33A9-4915-91C2-E9B85062EF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4585447" y="37373859"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1185583</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="직사각형 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EAEF9F-E2EC-4C55-9679-C1625C1C10D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6441142" y="37380582"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>674594</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1178858</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="직사각형 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED8C97F-91B0-4166-9A49-24DC89D33C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2691653" y="41945859"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8963</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="직사각형 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF20AD5-3B6A-4E10-A87F-942F574516BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4580964" y="41941377"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15688</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="직사각형 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF81FCE-E5B2-437A-A638-D34CDA97FC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6459071" y="41936894"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>667870</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1172134</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1127312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="직사각형 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06293618-13A1-4664-BD66-A34F62B7587A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2684929" y="46488724"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13446</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="직사각형 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07826D1-CF4F-4296-934F-8D5A612D1F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4585447" y="46506654"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13446</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13446</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="직사각형 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314292AD-819D-4ACD-9E3D-8444D365BC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714064" y="51078653"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1129553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1185582</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1129553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="직사각형 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE749DB-9FE8-40E5-9ECB-3ED6C6DFF2F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4569759" y="51062965"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1183340</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="직사각형 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79C1E56-D76B-41A1-B277-EEB9EA6E5CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696135" y="60238342"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1127311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1127311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="직사각형 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17EA81C-CF50-46AC-971A-D1F96E2FFF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707341" y="64776723"/>
+          <a:ext cx="1187823" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10581,8 +12330,8 @@
   <dimension ref="B3:R65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K9"/>
+      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10604,44 +12353,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="64" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -10691,25 +12440,29 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="71" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>301</v>
+      </c>
       <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="H6" s="41" t="s">
+        <v>302</v>
+      </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="62" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -10720,8 +12473,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10737,8 +12490,8 @@
       <c r="J7" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="N7" s="65"/>
+      <c r="K7" s="69"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10747,8 +12500,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10758,8 +12511,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="62"/>
-      <c r="N8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10768,8 +12521,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10779,8 +12532,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="63"/>
-      <c r="N9" s="65"/>
+      <c r="K9" s="70"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10789,23 +12542,29 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="71" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="41" t="s">
+        <v>303</v>
+      </c>
       <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>304</v>
+      </c>
       <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="71" t="s">
+      <c r="J10" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="62" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -10816,8 +12575,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10833,8 +12592,8 @@
       <c r="J11" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="N11" s="65"/>
+      <c r="K11" s="69"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10843,8 +12602,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10856,8 +12615,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="62"/>
-      <c r="N12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10866,8 +12625,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10877,8 +12636,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="63"/>
-      <c r="N13" s="65"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10887,21 +12646,27 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="71" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>306</v>
+      </c>
       <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>307</v>
+      </c>
       <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="J14" s="41" t="s">
+        <v>318</v>
+      </c>
       <c r="K14" s="41"/>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="62" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -10912,8 +12677,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10930,7 +12695,7 @@
         <v>265</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="65"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10939,8 +12704,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10957,7 +12722,7 @@
       <c r="K16" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="N16" s="65"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10966,8 +12731,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10978,7 +12743,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="65"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10987,8 +12752,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="71" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -11003,8 +12768,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -11021,8 +12786,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -11035,8 +12800,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -11049,8 +12814,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11065,8 +12830,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -11085,8 +12850,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -11099,8 +12864,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -11113,8 +12878,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="71" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -11129,8 +12894,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -11147,8 +12912,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -11161,8 +12926,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -11175,8 +12940,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -11191,8 +12956,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -11205,8 +12970,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -11219,8 +12984,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -11233,26 +12998,32 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="71" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="F34" s="41" t="s">
+        <v>308</v>
+      </c>
       <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="41" t="s">
+        <v>309</v>
+      </c>
       <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="J34" s="41" t="s">
+        <v>310</v>
+      </c>
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -11271,8 +13042,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -11289,8 +13060,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -11309,24 +13080,30 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="71" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="F38" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="H38" s="41" t="s">
+        <v>312</v>
+      </c>
       <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="J38" s="41" t="s">
+        <v>313</v>
+      </c>
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -11345,8 +13122,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -11361,8 +13138,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -11381,24 +13158,30 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="61" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="71" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="F42" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="H42" s="41" t="s">
+        <v>312</v>
+      </c>
       <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="J42" s="41" t="s">
+        <v>313</v>
+      </c>
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -11417,8 +13200,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -11433,8 +13216,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -11449,24 +13232,28 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="61" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="71" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="F46" s="41" t="s">
+        <v>314</v>
+      </c>
       <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="H46" s="41" t="s">
+        <v>315</v>
+      </c>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -11485,8 +13272,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -11503,8 +13290,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -11517,24 +13304,28 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="61" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="71" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
+      <c r="F50" s="41" t="s">
+        <v>314</v>
+      </c>
       <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>315</v>
+      </c>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -11551,8 +13342,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -11567,8 +13358,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -11583,8 +13374,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62"/>
-      <c r="C54" s="61" t="s">
+      <c r="B54" s="69"/>
+      <c r="C54" s="71" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -11599,8 +13390,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -11615,8 +13406,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -11629,8 +13420,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -11649,15 +13440,17 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="61" t="s">
+      <c r="B58" s="69"/>
+      <c r="C58" s="71" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="F58" s="41" t="s">
+        <v>316</v>
+      </c>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
@@ -11665,8 +13458,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -11681,8 +13474,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -11695,8 +13488,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -11709,15 +13502,17 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="62"/>
-      <c r="C62" s="61" t="s">
+      <c r="B62" s="69"/>
+      <c r="C62" s="71" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>230</v>
       </c>
       <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="F62" s="41" t="s">
+        <v>317</v>
+      </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
@@ -11725,8 +13520,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -11741,8 +13536,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -11755,8 +13550,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -11772,16 +13567,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -11797,6 +13582,16 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752E899-1CA6-4640-A628-F19B14CE44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="304">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,11 +1235,23 @@
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Skull &amp; Ghosts Effects/CFX2_SkullRotate.prefab</t>
   </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1776,15 +1787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1808,6 +1810,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,7 +1857,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1906,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1979,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2052,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2125,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2198,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2271,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2344,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2417,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2490,7 @@
         <xdr:cNvPr id="10" name="직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,8 +2498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="11049000"/>
-          <a:ext cx="1190625" cy="1143000"/>
+          <a:off x="6443382" y="11071412"/>
+          <a:ext cx="1187824" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,7 +2563,7 @@
         <xdr:cNvPr id="11" name="직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2636,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2709,7 @@
         <xdr:cNvPr id="13" name="직사각형 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,8 +2717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="15621000"/>
-          <a:ext cx="1190625" cy="1143000"/>
+          <a:off x="6443382" y="15643412"/>
+          <a:ext cx="1187824" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,7 +2769,7 @@
         <xdr:cNvPr id="14" name="직사각형 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2842,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2915,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2988,7 @@
         <xdr:cNvPr id="17" name="직사각형 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3061,7 @@
         <xdr:cNvPr id="18" name="직사각형 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3134,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3194,7 @@
         <xdr:cNvPr id="20" name="직사각형 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3267,7 @@
         <xdr:cNvPr id="21" name="직사각형 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3340,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3413,7 @@
         <xdr:cNvPr id="23" name="직사각형 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3486,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3559,7 @@
         <xdr:cNvPr id="25" name="직사각형 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3632,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3705,7 @@
         <xdr:cNvPr id="28" name="직사각형 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3765,7 @@
         <xdr:cNvPr id="29" name="직사각형 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3838,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3911,7 @@
         <xdr:cNvPr id="31" name="직사각형 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3984,7 @@
         <xdr:cNvPr id="32" name="직사각형 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +4057,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,7 +4130,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,7 +4190,7 @@
         <xdr:cNvPr id="35" name="직사각형 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4252,7 +4263,7 @@
         <xdr:cNvPr id="36" name="직사각형 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4323,7 @@
         <xdr:cNvPr id="37" name="직사각형 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4383,7 @@
         <xdr:cNvPr id="38" name="직사각형 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4445,7 +4456,7 @@
         <xdr:cNvPr id="39" name="직사각형 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,7 +4516,7 @@
         <xdr:cNvPr id="40" name="직사각형 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4576,7 @@
         <xdr:cNvPr id="41" name="직사각형 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4649,7 @@
         <xdr:cNvPr id="42" name="직사각형 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4709,7 @@
         <xdr:cNvPr id="43" name="직사각형 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4758,7 +4769,7 @@
         <xdr:cNvPr id="44" name="직사각형 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,6 +4783,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4818,7 +4842,7 @@
         <xdr:cNvPr id="45" name="직사각형 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,6 +4856,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4878,7 +4915,7 @@
         <xdr:cNvPr id="46" name="직사각형 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,7 +4975,7 @@
         <xdr:cNvPr id="47" name="직사각형 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4952,6 +4989,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4998,7 +5048,7 @@
         <xdr:cNvPr id="48" name="직사각형 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5012,6 +5062,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5058,7 +5121,7 @@
         <xdr:cNvPr id="49" name="직사각형 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,186 +5165,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14068425" y="12192000"/>
-          <a:ext cx="1190625" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15259050" y="12192000"/>
-          <a:ext cx="1190625" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="직사각형 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16449675" y="12192000"/>
-          <a:ext cx="1190625" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -5298,7 +5181,7 @@
         <xdr:cNvPr id="57" name="직사각형 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5312,6 +5195,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5358,7 +5254,7 @@
         <xdr:cNvPr id="58" name="직사각형 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5372,6 +5268,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5418,7 +5327,7 @@
         <xdr:cNvPr id="59" name="직사각형 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,6 +5341,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5460,67 +5382,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="그림 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4581525" y="6477000"/>
-          <a:ext cx="3762375" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -5539,7 +5400,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5612,7 +5473,7 @@
         <xdr:cNvPr id="65" name="직사각형 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5669,56 +5530,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>650099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>764400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="그림 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFFF16C-0849-4EF6-BE1A-8311ACD0FEF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="11049000"/>
-          <a:ext cx="650099" cy="764400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -5735,7 +5546,7 @@
         <xdr:cNvPr id="62" name="그림 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E554317-F382-4D04-BC4B-B04BE81CD5B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E554317-F382-4D04-BC4B-B04BE81CD5B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5744,7 +5555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5785,7 +5596,7 @@
         <xdr:cNvPr id="63" name="그림 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AFDC82-F245-4477-94B3-94EA15DE17B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AFDC82-F245-4477-94B3-94EA15DE17B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5807,8 +5618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="12192000"/>
-          <a:ext cx="1200150" cy="1160145"/>
+          <a:off x="4572000" y="12214412"/>
+          <a:ext cx="1197349" cy="1160145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5835,7 +5646,7 @@
         <xdr:cNvPr id="66" name="그림 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9522B74-FC98-4E6E-8CE3-4AF57E3F1253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9522B74-FC98-4E6E-8CE3-4AF57E3F1253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5885,7 +5696,7 @@
         <xdr:cNvPr id="67" name="그림 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A2D600-57BF-45CD-BE17-841FE05686DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A2D600-57BF-45CD-BE17-841FE05686DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5894,7 +5705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5935,7 +5746,7 @@
         <xdr:cNvPr id="68" name="그림 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C9922B-6976-4EB9-8A8A-99451CD914E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3C9922B-6976-4EB9-8A8A-99451CD914E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,7 +5755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5985,7 +5796,7 @@
         <xdr:cNvPr id="69" name="그림 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8747AE4-336B-499F-980B-C33E6687D8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8747AE4-336B-499F-980B-C33E6687D8A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5994,7 +5805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6035,7 +5846,7 @@
         <xdr:cNvPr id="70" name="그림 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2960F20C-2D70-424F-8A28-1C0B0FBF462F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2960F20C-2D70-424F-8A28-1C0B0FBF462F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6044,7 +5855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6085,7 +5896,7 @@
         <xdr:cNvPr id="71" name="그림 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CF9C20-D9D1-4AB3-BF40-DA57B9413924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78CF9C20-D9D1-4AB3-BF40-DA57B9413924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6094,7 +5905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6135,7 +5946,7 @@
         <xdr:cNvPr id="72" name="그림 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0B6456-10B5-4C4A-8A62-1AFED6FEB576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD0B6456-10B5-4C4A-8A62-1AFED6FEB576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6144,7 +5955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6185,7 +5996,7 @@
         <xdr:cNvPr id="73" name="그림 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5223BCFD-9A5C-46FD-9A5F-FC9AB09A1276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5223BCFD-9A5C-46FD-9A5F-FC9AB09A1276}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6194,7 +6005,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6235,7 +6046,7 @@
         <xdr:cNvPr id="74" name="그림 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FC49D2-64D5-4BA8-B2C1-AD2B0BA61621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FC49D2-64D5-4BA8-B2C1-AD2B0BA61621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6244,7 +6055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6285,7 +6096,7 @@
         <xdr:cNvPr id="75" name="그림 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEC9A9E-40DE-4FD5-BEAF-0CF577FE9D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FEC9A9E-40DE-4FD5-BEAF-0CF577FE9D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6294,7 +6105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6335,7 +6146,7 @@
         <xdr:cNvPr id="76" name="그림 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F5DEC-1415-4BD7-A952-5DA13A1D061D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9F5DEC-1415-4BD7-A952-5DA13A1D061D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6344,7 +6155,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6379,7 +6190,7 @@
         <xdr:cNvPr id="77" name="그림 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9826A97F-873A-426E-80F9-8C2DACF9F802}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9826A97F-873A-426E-80F9-8C2DACF9F802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,7 +6199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6423,7 +6234,7 @@
         <xdr:cNvPr id="78" name="그림 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A33390-02F2-4741-8852-9AB261746769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A33390-02F2-4741-8852-9AB261746769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6467,7 +6278,7 @@
         <xdr:cNvPr id="79" name="그림 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59081575-4839-4604-83C4-2A43F5E6D876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59081575-4839-4604-83C4-2A43F5E6D876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6476,7 +6287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6511,7 +6322,7 @@
         <xdr:cNvPr id="80" name="그림 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A113B-F045-470E-8F9E-3E2522A3D0B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E6A113B-F045-470E-8F9E-3E2522A3D0B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6520,7 +6331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6555,7 +6366,7 @@
         <xdr:cNvPr id="81" name="그림 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05992A0A-2B2A-4921-AC9F-9FA4F70403D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05992A0A-2B2A-4921-AC9F-9FA4F70403D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6564,7 +6375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6599,7 +6410,7 @@
         <xdr:cNvPr id="85" name="그림 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DBB0B6-CAA0-4EB5-905E-101CE7E1F6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DBB0B6-CAA0-4EB5-905E-101CE7E1F6DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6643,7 +6454,7 @@
         <xdr:cNvPr id="86" name="그림 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D568226-F9E4-4671-850A-BA96E0CCE665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D568226-F9E4-4671-850A-BA96E0CCE665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6687,7 +6498,7 @@
         <xdr:cNvPr id="87" name="그림 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A699FB-774E-4A76-869C-8539D8DA9510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89A699FB-774E-4A76-869C-8539D8DA9510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6696,7 +6507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6731,7 +6542,7 @@
         <xdr:cNvPr id="88" name="그림 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1E813E-64D3-4CF4-99C6-E2519524DB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A1E813E-64D3-4CF4-99C6-E2519524DB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +6551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6755,6 +6566,212 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14055328" y="11060906"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="직사각형 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245953" y="11060906"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="직사각형 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16436578" y="11060906"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7056,7 +7073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7201,7 +7218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
@@ -7806,7 +7823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8586,7 +8603,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B2:I30"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8594,7 +8611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9008,7 +9025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -9492,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10177,7 +10194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10343,7 +10360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -10577,12 +10594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10604,44 +10621,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="64" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -10691,10 +10708,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="71" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -10706,10 +10723,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="62" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -10720,8 +10737,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10737,8 +10754,8 @@
       <c r="J7" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="N7" s="65"/>
+      <c r="K7" s="69"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10747,8 +10764,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10758,8 +10775,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="62"/>
-      <c r="N8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10768,8 +10785,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10779,8 +10796,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="63"/>
-      <c r="N9" s="65"/>
+      <c r="K9" s="70"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10789,8 +10806,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="71" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -10802,10 +10819,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="62" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -10816,8 +10833,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10833,8 +10850,8 @@
       <c r="J11" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="N11" s="65"/>
+      <c r="K11" s="69"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10843,8 +10860,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10856,8 +10873,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="62"/>
-      <c r="N12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10866,8 +10883,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10877,8 +10894,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="63"/>
-      <c r="N13" s="65"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10887,8 +10904,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="71" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -10901,7 +10918,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="62" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -10912,8 +10929,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10930,7 +10947,7 @@
         <v>265</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="65"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10939,8 +10956,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10957,7 +10974,7 @@
       <c r="K16" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="N16" s="65"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10966,8 +10983,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10978,7 +10995,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="65"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10987,8 +11004,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="71" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -11003,8 +11020,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -11021,8 +11038,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -11035,8 +11052,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -11049,8 +11066,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11065,8 +11082,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -11085,8 +11102,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -11099,8 +11116,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -11113,8 +11130,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="71" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -11129,8 +11146,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -11147,8 +11164,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -11161,8 +11178,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -11175,8 +11192,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -11191,22 +11208,28 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="F31" s="41" t="s">
+        <v>301</v>
+      </c>
       <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="H31" s="41" t="s">
+        <v>302</v>
+      </c>
       <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="J31" s="41" t="s">
+        <v>303</v>
+      </c>
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -11219,8 +11242,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -11233,10 +11256,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="71" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -11251,8 +11274,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -11271,8 +11294,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -11289,8 +11312,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -11309,8 +11332,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="71" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -11325,8 +11348,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -11345,8 +11368,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -11361,8 +11384,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -11381,8 +11404,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="61" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="71" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -11397,8 +11420,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -11417,8 +11440,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -11433,8 +11456,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -11449,8 +11472,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="61" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="71" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -11465,8 +11488,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -11485,8 +11508,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -11503,8 +11526,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -11517,8 +11540,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="61" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="71" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -11533,8 +11556,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -11551,8 +11574,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -11567,8 +11590,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -11583,8 +11606,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62"/>
-      <c r="C54" s="61" t="s">
+      <c r="B54" s="69"/>
+      <c r="C54" s="71" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -11599,8 +11622,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -11615,8 +11638,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -11629,8 +11652,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -11649,8 +11672,8 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="61" t="s">
+      <c r="B58" s="69"/>
+      <c r="C58" s="71" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -11665,8 +11688,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -11681,8 +11704,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -11695,8 +11718,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -11709,8 +11732,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="62"/>
-      <c r="C62" s="61" t="s">
+      <c r="B62" s="69"/>
+      <c r="C62" s="71" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -11725,8 +11748,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -11741,8 +11764,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -11755,8 +11778,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -11772,16 +11795,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -11797,6 +11810,16 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrawlStars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575845B4-1644-4F7B-AF3F-37363EB2E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -1251,7 +1252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1787,6 +1788,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1810,15 +1820,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,7 +1858,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200C0FB-4107-4163-A884-1AC7BE1226B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1907,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1980,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2053,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2126,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2199,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2272,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2345,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2418,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2491,7 @@
         <xdr:cNvPr id="10" name="직사각형 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2564,7 @@
         <xdr:cNvPr id="11" name="직사각형 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2637,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2710,7 @@
         <xdr:cNvPr id="13" name="직사각형 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2770,7 @@
         <xdr:cNvPr id="14" name="직사각형 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2843,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2916,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2989,7 @@
         <xdr:cNvPr id="17" name="직사각형 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3062,7 @@
         <xdr:cNvPr id="18" name="직사각형 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3135,7 @@
         <xdr:cNvPr id="19" name="직사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3195,7 @@
         <xdr:cNvPr id="20" name="직사각형 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3268,7 @@
         <xdr:cNvPr id="21" name="직사각형 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3341,7 @@
         <xdr:cNvPr id="22" name="직사각형 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3414,7 @@
         <xdr:cNvPr id="23" name="직사각형 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3487,7 @@
         <xdr:cNvPr id="24" name="직사각형 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3560,7 @@
         <xdr:cNvPr id="25" name="직사각형 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3633,7 @@
         <xdr:cNvPr id="26" name="직사각형 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3706,7 @@
         <xdr:cNvPr id="28" name="직사각형 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3765,7 +3766,7 @@
         <xdr:cNvPr id="29" name="직사각형 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3839,7 @@
         <xdr:cNvPr id="30" name="직사각형 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3912,7 @@
         <xdr:cNvPr id="31" name="직사각형 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +3985,7 @@
         <xdr:cNvPr id="32" name="직사각형 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,7 +4058,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,7 +4131,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4191,7 @@
         <xdr:cNvPr id="35" name="직사각형 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4264,7 @@
         <xdr:cNvPr id="36" name="직사각형 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4324,7 @@
         <xdr:cNvPr id="37" name="직사각형 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4383,7 +4384,7 @@
         <xdr:cNvPr id="38" name="직사각형 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,7 +4457,7 @@
         <xdr:cNvPr id="39" name="직사각형 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4516,7 +4517,7 @@
         <xdr:cNvPr id="40" name="직사각형 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4576,7 +4577,7 @@
         <xdr:cNvPr id="41" name="직사각형 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4650,7 @@
         <xdr:cNvPr id="42" name="직사각형 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4709,7 +4710,7 @@
         <xdr:cNvPr id="43" name="직사각형 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,15 +4762,15 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="직사각형 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,7 +4779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14068425" y="1905000"/>
-          <a:ext cx="1190625" cy="1143000"/>
+          <a:ext cx="1190625" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4818,6 +4819,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4842,7 +4847,7 @@
         <xdr:cNvPr id="45" name="직사각형 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4915,7 +4920,7 @@
         <xdr:cNvPr id="46" name="직사각형 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4980,7 @@
         <xdr:cNvPr id="47" name="직사각형 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +5053,7 @@
         <xdr:cNvPr id="48" name="직사각형 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +5126,7 @@
         <xdr:cNvPr id="49" name="직사각형 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5181,7 +5186,7 @@
         <xdr:cNvPr id="57" name="직사각형 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5259,7 @@
         <xdr:cNvPr id="58" name="직사각형 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5327,7 +5332,7 @@
         <xdr:cNvPr id="59" name="직사각형 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +5405,7 @@
         <xdr:cNvPr id="64" name="직사각형 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5478,7 @@
         <xdr:cNvPr id="65" name="직사각형 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5546,7 +5551,7 @@
         <xdr:cNvPr id="62" name="그림 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E554317-F382-4D04-BC4B-B04BE81CD5B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E554317-F382-4D04-BC4B-B04BE81CD5B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5596,7 +5601,7 @@
         <xdr:cNvPr id="63" name="그림 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52AFDC82-F245-4477-94B3-94EA15DE17B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AFDC82-F245-4477-94B3-94EA15DE17B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5646,7 +5651,7 @@
         <xdr:cNvPr id="66" name="그림 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9522B74-FC98-4E6E-8CE3-4AF57E3F1253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9522B74-FC98-4E6E-8CE3-4AF57E3F1253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,7 +5701,7 @@
         <xdr:cNvPr id="67" name="그림 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37A2D600-57BF-45CD-BE17-841FE05686DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A2D600-57BF-45CD-BE17-841FE05686DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5746,7 +5751,7 @@
         <xdr:cNvPr id="68" name="그림 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3C9922B-6976-4EB9-8A8A-99451CD914E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C9922B-6976-4EB9-8A8A-99451CD914E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5796,7 +5801,7 @@
         <xdr:cNvPr id="69" name="그림 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8747AE4-336B-499F-980B-C33E6687D8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8747AE4-336B-499F-980B-C33E6687D8A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5846,7 +5851,7 @@
         <xdr:cNvPr id="70" name="그림 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2960F20C-2D70-424F-8A28-1C0B0FBF462F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2960F20C-2D70-424F-8A28-1C0B0FBF462F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5896,7 +5901,7 @@
         <xdr:cNvPr id="71" name="그림 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78CF9C20-D9D1-4AB3-BF40-DA57B9413924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CF9C20-D9D1-4AB3-BF40-DA57B9413924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5946,7 +5951,7 @@
         <xdr:cNvPr id="72" name="그림 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD0B6456-10B5-4C4A-8A62-1AFED6FEB576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0B6456-10B5-4C4A-8A62-1AFED6FEB576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5996,7 +6001,7 @@
         <xdr:cNvPr id="73" name="그림 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5223BCFD-9A5C-46FD-9A5F-FC9AB09A1276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5223BCFD-9A5C-46FD-9A5F-FC9AB09A1276}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6036,17 +6041,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10176</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
+      <xdr:rowOff>1133475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="74" name="그림 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12FC49D2-64D5-4BA8-B2C1-AD2B0BA61621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FC49D2-64D5-4BA8-B2C1-AD2B0BA61621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6068,8 +6073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14097000" y="3048000"/>
-          <a:ext cx="1152525" cy="1114425"/>
+          <a:off x="14132902" y="3055327"/>
+          <a:ext cx="1175889" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6087,16 +6092,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1104899</xdr:rowOff>
+      <xdr:colOff>175279</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="75" name="그림 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FEC9A9E-40DE-4FD5-BEAF-0CF577FE9D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEC9A9E-40DE-4FD5-BEAF-0CF577FE9D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6119,7 +6124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15259050" y="3133724"/>
-          <a:ext cx="1304925" cy="1019175"/>
+          <a:ext cx="1365904" cy="1066801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6146,7 +6151,7 @@
         <xdr:cNvPr id="76" name="그림 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9F5DEC-1415-4BD7-A952-5DA13A1D061D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F5DEC-1415-4BD7-A952-5DA13A1D061D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6190,7 +6195,7 @@
         <xdr:cNvPr id="77" name="그림 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9826A97F-873A-426E-80F9-8C2DACF9F802}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9826A97F-873A-426E-80F9-8C2DACF9F802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6234,7 +6239,7 @@
         <xdr:cNvPr id="78" name="그림 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A33390-02F2-4741-8852-9AB261746769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A33390-02F2-4741-8852-9AB261746769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6278,7 +6283,7 @@
         <xdr:cNvPr id="79" name="그림 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59081575-4839-4604-83C4-2A43F5E6D876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59081575-4839-4604-83C4-2A43F5E6D876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6307,13 +6312,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:colOff>31296</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6322,7 +6327,7 @@
         <xdr:cNvPr id="80" name="그림 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E6A113B-F045-470E-8F9E-3E2522A3D0B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A113B-F045-470E-8F9E-3E2522A3D0B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6498771" y="40767000"/>
+          <a:off x="6489246" y="40767000"/>
           <a:ext cx="1149804" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6366,7 +6371,7 @@
         <xdr:cNvPr id="81" name="그림 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05992A0A-2B2A-4921-AC9F-9FA4F70403D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05992A0A-2B2A-4921-AC9F-9FA4F70403D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6410,7 +6415,7 @@
         <xdr:cNvPr id="85" name="그림 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DBB0B6-CAA0-4EB5-905E-101CE7E1F6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DBB0B6-CAA0-4EB5-905E-101CE7E1F6DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6459,7 @@
         <xdr:cNvPr id="86" name="그림 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D568226-F9E4-4671-850A-BA96E0CCE665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D568226-F9E4-4671-850A-BA96E0CCE665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6498,7 +6503,7 @@
         <xdr:cNvPr id="87" name="그림 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89A699FB-774E-4A76-869C-8539D8DA9510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A699FB-774E-4A76-869C-8539D8DA9510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6529,20 +6534,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>45125</xdr:rowOff>
+      <xdr:rowOff>12905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="88" name="그림 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A1E813E-64D3-4CF4-99C6-E2519524DB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1E813E-64D3-4CF4-99C6-E2519524DB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6558,8 +6563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705101" y="68199000"/>
-          <a:ext cx="1204232" cy="1188125"/>
+          <a:off x="2705101" y="68199001"/>
+          <a:ext cx="1171574" cy="1155904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6586,7 +6591,7 @@
         <xdr:cNvPr id="82" name="직사각형 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6594,7 +6599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14055328" y="11060906"/>
+          <a:off x="14068425" y="11049000"/>
           <a:ext cx="1190625" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6659,7 +6664,7 @@
         <xdr:cNvPr id="83" name="직사각형 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,7 +6672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15245953" y="11060906"/>
+          <a:off x="15259050" y="11049000"/>
           <a:ext cx="1190625" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6732,7 +6737,7 @@
         <xdr:cNvPr id="84" name="직사각형 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6772,6 +6777,270 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>72536</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1150634</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1069732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9F28AB-65E7-4374-92B7-6BDE8FF137B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14176863" y="4304569"/>
+          <a:ext cx="1078098" cy="963490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1186961</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E39F3D-72FD-4213-96E4-495C4BD02196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14111655" y="8792308"/>
+          <a:ext cx="1179633" cy="1121019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1186963</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A042C831-B485-4FB6-968F-FFEFCF0BD67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15298616" y="8792307"/>
+          <a:ext cx="1186962" cy="1121020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1178083</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1121019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15551AAB-CC1E-4F56-8E94-7A03E14EDC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15298615" y="13349654"/>
+          <a:ext cx="1178083" cy="1113692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1179635</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1121019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D6F922-4D2A-48F5-9A90-CC676C9F9B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14118981" y="13364307"/>
+          <a:ext cx="1164981" cy="1099039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1160742</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1106365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98539D3-2A81-4B69-928C-6B7124FDB56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15379211" y="4330213"/>
+          <a:ext cx="1080146" cy="974479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7073,7 +7342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7218,7 +7487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
@@ -7823,7 +8092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8603,7 +8872,7 @@
       <c r="H62" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30"/>
+  <autoFilter ref="B2:I30" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8611,7 +8880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:T76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9025,7 +9294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C7:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -9509,7 +9778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C6:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10194,7 +10463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10360,7 +10629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -10594,12 +10863,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10621,44 +10890,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -10708,10 +10977,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="61" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -10723,10 +10992,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="65" t="s">
         <v>249</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -10737,8 +11006,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10754,8 +11023,8 @@
       <c r="J7" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="N7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -10764,8 +11033,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10775,8 +11044,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="69"/>
-      <c r="N8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -10785,8 +11054,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10796,8 +11065,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="70"/>
-      <c r="N9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -10806,8 +11075,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="61" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -10819,10 +11088,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="65" t="s">
         <v>250</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -10833,8 +11102,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10850,8 +11119,8 @@
       <c r="J11" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="N11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -10860,8 +11129,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10873,8 +11142,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="69"/>
-      <c r="N12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -10883,8 +11152,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10894,8 +11163,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="70"/>
-      <c r="N13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -10904,8 +11173,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="61" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -10918,7 +11187,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="65" t="s">
         <v>251</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -10929,8 +11198,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10947,7 +11216,7 @@
         <v>265</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="62"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -10956,8 +11225,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10974,7 +11243,7 @@
       <c r="K16" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="N16" s="62"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -10983,8 +11252,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -10995,7 +11264,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="62"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -11004,8 +11273,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="61" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -11020,8 +11289,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -11038,8 +11307,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -11052,8 +11321,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -11066,8 +11335,8 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11082,8 +11351,8 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -11102,8 +11371,8 @@
       <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -11116,8 +11385,8 @@
       <c r="K24" s="41"/>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -11130,8 +11399,8 @@
       <c r="K25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="61" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -11146,8 +11415,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -11164,8 +11433,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -11178,8 +11447,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -11192,8 +11461,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="69" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -11208,8 +11477,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -11228,8 +11497,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -11242,8 +11511,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -11256,10 +11525,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="61" t="s">
         <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -11274,8 +11543,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -11294,8 +11563,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -11312,8 +11581,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -11332,8 +11601,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="71" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="61" t="s">
         <v>244</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -11348,8 +11617,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -11368,8 +11637,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -11384,8 +11653,8 @@
       <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -11404,8 +11673,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="71" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="61" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -11420,8 +11689,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -11440,8 +11709,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -11456,8 +11725,8 @@
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -11472,8 +11741,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="61" t="s">
         <v>247</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -11488,8 +11757,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -11508,8 +11777,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -11526,8 +11795,8 @@
       <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -11540,8 +11809,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="71" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="61" t="s">
         <v>246</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -11556,8 +11825,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -11574,8 +11843,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -11590,8 +11859,8 @@
       <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -11606,8 +11875,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="71" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="61" t="s">
         <v>241</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -11622,8 +11891,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -11638,8 +11907,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -11652,8 +11921,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -11672,8 +11941,8 @@
       <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="71" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="61" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -11688,8 +11957,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -11704,8 +11973,8 @@
       <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -11718,8 +11987,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -11732,8 +12001,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="71" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="61" t="s">
         <v>243</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -11748,8 +12017,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -11764,8 +12033,8 @@
       <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -11778,8 +12047,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -11795,6 +12064,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -11810,16 +12089,6 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575845B4-1644-4F7B-AF3F-37363EB2E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4485C8-0C19-406B-9603-7DEB3CE1ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="315">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,10 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트로 할지 이미지나 UI로 할지 안정해 졌으니 그냥 찾는거 기재하면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EFEFCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,10 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트로 할지 이미지나 UI로 할지 안정해 졌으니 그냥 찾는거 기재하면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssetStore에서 찾아본거</t>
   </si>
   <si>
@@ -1199,53 +1191,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/CFX_SpikyAura_Character.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Explosions/Firework Variants/CFX_Firework_Blue.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_Hit_Light_A_Ground.prefab</t>
+  </si>
+  <si>
+    <t>도착할 때는 이펙트 없는 게 나을 거 같음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 게 나을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_BloodPuddle.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Indicator/Indicator 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/Color Variants/CFX3_ResurrectionLight_Oval (Blue).prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/CFX_Magical_Source.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Misc/CFX_SpikyAura_Character.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_SkyRays_Loop.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/Color Variants/CFX3_ResurrectionLight_Oval (Blue).prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX Prefabs/Explosions/Firework Variants/CFX_Firework_Blue.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX3 Prefabs/Light/CFX3_Hit_Light_A_Ground.prefab</t>
-  </si>
-  <si>
-    <t>도착할 때는 이펙트 없는 게 나을 거 같음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는 게 나을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활위치: 트렁크 그대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicator 17 Pillar01_sonic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골 붙여서 스프라이트 형식으로 채워짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 이대로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 넣어주는 방향으로 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발먼지 넣어서 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_Blood.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_BloodHeavy.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Blood/CFX2_BloodPuddle.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 모션만 주고 이펙트 없는 방향으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Effect/JMO Assets/Cartoon FX/CFX2 Prefabs/Skull &amp; Ghosts Effects/CFX2_SkullRotate.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Prefabs/Indicator/Indicator 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefabs/Indicator/Indicator 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefabs/Indicator/Indicator 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임(HP, 스테미나, 피버, 보스 HP, 시간 위치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활, 결과패배창, 인디케이터,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지(인디케이터, 부활?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,15 +1838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1820,6 +1861,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2426,8 +2476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="11049000"/>
-          <a:ext cx="1190625" cy="1143000"/>
+          <a:off x="4572000" y="11071412"/>
+          <a:ext cx="1187824" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6857,7 +6907,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14111655" y="8792308"/>
+          <a:off x="14075753" y="8784981"/>
           <a:ext cx="1179633" cy="1121019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7035,6 +7085,591 @@
         <a:xfrm>
           <a:off x="15379211" y="4330213"/>
           <a:ext cx="1080146" cy="974479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1057275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="그림 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D777810-C02C-467B-B15F-A8EEEF94DD7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="34490025"/>
+          <a:ext cx="2762250" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>605116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1255058</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>605116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="직사각형 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AD352C-73F3-4CF2-B0D0-9039DE5ED4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8381999" y="8247528"/>
+          <a:ext cx="1187824" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1546411</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>638735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2757447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>657785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="직사각형 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9191991-AC4A-4B9D-ADFA-DEB6DD8090BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861176" y="8281147"/>
+          <a:ext cx="1211036" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>666751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>564631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58E7B12-98C5-49F1-81F4-0B0CA37C0695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17735550" y="1428751"/>
+          <a:ext cx="5391149" cy="3326880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="직사각형 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB83E67D-BAFC-4E74-A21B-79AF9D6E5A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17726025" y="5314950"/>
+          <a:ext cx="4743450" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="직사각형 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBC47B4-0EC6-4E04-BDBF-AC493FDF9160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17887950" y="10125075"/>
+          <a:ext cx="4743450" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E73BAC0-78D4-485D-B0AB-472D65B034AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="10858500"/>
+          <a:ext cx="3905249" cy="6286499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2748273</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A044AD30-4579-4562-8379-AE769F329239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362949" y="19602450"/>
+          <a:ext cx="2719699" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="직사각형 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305AE3F9-5616-475A-B2B9-A46DB1B7EA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="29356050"/>
+          <a:ext cx="1190625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438724</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>495348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF964223-DA02-4F3A-AEFB-E33B66C0223F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="30632400"/>
+          <a:ext cx="4115374" cy="342948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10866,9 +11501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10890,44 +11525,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="64" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -10943,25 +11578,25 @@
         <v>226</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>227</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>228</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K5" s="42" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5" s="42" t="s">
         <v>60</v>
@@ -10977,26 +11612,25 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="71" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>249</v>
+      <c r="K6" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="O6" s="41" t="s">
         <v>230</v>
@@ -11006,25 +11640,25 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="N7" s="65"/>
+        <v>254</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -11033,8 +11667,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -11044,8 +11678,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="62"/>
-      <c r="N8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -11054,8 +11688,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -11065,8 +11699,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="63"/>
-      <c r="N9" s="65"/>
+      <c r="K9" s="70"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -11075,8 +11709,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="71" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -11088,11 +11722,11 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="65" t="s">
-        <v>250</v>
+      <c r="K10" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="O10" s="41" t="s">
         <v>230</v>
@@ -11102,25 +11736,25 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="K11" s="62"/>
-      <c r="N11" s="65"/>
+        <v>269</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -11129,21 +11763,21 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="62"/>
-      <c r="N12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -11152,8 +11786,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -11163,8 +11797,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="63"/>
-      <c r="N13" s="65"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -11173,8 +11807,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="71" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -11187,8 +11821,8 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="65" t="s">
-        <v>251</v>
+      <c r="N14" s="62" t="s">
+        <v>250</v>
       </c>
       <c r="O14" s="41" t="s">
         <v>230</v>
@@ -11198,25 +11832,25 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="65"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -11225,25 +11859,25 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="N16" s="65"/>
+        <v>279</v>
+      </c>
+      <c r="N16" s="62"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -11252,8 +11886,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -11264,7 +11898,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="65"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -11273,8 +11907,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="71" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -11289,26 +11923,26 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -11321,8 +11955,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -11333,10 +11967,16 @@
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
+      <c r="N21" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11349,30 +11989,42 @@
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
+      <c r="N22" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K23" s="41"/>
+      <c r="N23" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -11382,11 +12034,22 @@
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -11397,10 +12060,16 @@
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
+      <c r="N25" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="71" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -11415,26 +12084,26 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -11447,8 +12116,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -11461,9 +12130,9 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69" t="s">
-        <v>253</v>
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
+        <v>252</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>230</v>
@@ -11477,28 +12146,28 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G31" s="41"/>
       <c r="H31" s="41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I31" s="41"/>
       <c r="J31" s="41" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -11511,8 +12180,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -11525,11 +12194,11 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="71" t="s">
         <v>239</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>240</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>230</v>
@@ -11543,67 +12212,67 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="41" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="61" t="s">
-        <v>244</v>
+      <c r="B38" s="69"/>
+      <c r="C38" s="71" t="s">
+        <v>243</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>230</v>
@@ -11617,65 +12286,67 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G39" s="41"/>
       <c r="H39" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="41" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I41" s="41"/>
       <c r="J41" s="41" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="61" t="s">
-        <v>245</v>
+      <c r="B42" s="69"/>
+      <c r="C42" s="71" t="s">
+        <v>244</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>230</v>
@@ -11689,49 +12360,51 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I43" s="41"/>
       <c r="J43" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
+      <c r="K44" s="41" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
@@ -11741,9 +12414,9 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="61" t="s">
-        <v>247</v>
+      <c r="B46" s="69"/>
+      <c r="C46" s="71" t="s">
+        <v>246</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>230</v>
@@ -11757,46 +12430,48 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I47" s="41"/>
       <c r="J47" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G48" s="41"/>
       <c r="H48" s="44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="41" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -11809,9 +12484,9 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="61" t="s">
-        <v>246</v>
+      <c r="B50" s="69"/>
+      <c r="C50" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>230</v>
@@ -11825,47 +12500,49 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="K52" s="41" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
@@ -11875,9 +12552,9 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62"/>
-      <c r="C54" s="61" t="s">
-        <v>241</v>
+      <c r="B54" s="69"/>
+      <c r="C54" s="71" t="s">
+        <v>240</v>
       </c>
       <c r="D54" s="41" t="s">
         <v>230</v>
@@ -11891,14 +12568,14 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -11907,8 +12584,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -11921,29 +12598,31 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="41" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K57" s="41"/>
+        <v>292</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="61" t="s">
-        <v>242</v>
+      <c r="B58" s="69"/>
+      <c r="C58" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="D58" s="41" t="s">
         <v>230</v>
@@ -11957,24 +12636,26 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
+      <c r="K59" s="41" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -11987,8 +12668,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -12001,9 +12682,9 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="62"/>
-      <c r="C62" s="61" t="s">
-        <v>243</v>
+      <c r="B62" s="69"/>
+      <c r="C62" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>230</v>
@@ -12017,24 +12698,26 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
+      <c r="K63" s="41" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -12047,14 +12730,14 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -12064,16 +12747,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -12089,6 +12762,16 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4485C8-0C19-406B-9603-7DEB3CE1ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5FC099-2282-4F41-B3A9-5E425CE13B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="7월 26일" sheetId="7" r:id="rId7"/>
     <sheet name="8월 3일" sheetId="9" r:id="rId8"/>
     <sheet name="리소스 당신의 선택은" sheetId="8" r:id="rId9"/>
+    <sheet name="8월 9일" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="348">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,6 +1297,127 @@
   </si>
   <si>
     <t>나머지(인디케이터, 부활?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스테미나 없을 때 타게팅회전X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt; 각자 스크립트 처리</t>
+  </si>
+  <si>
+    <t>2. 인디케이터 이펙트 바꾸는 방향</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      다같이 리소스를 찾는 방향</t>
+  </si>
+  <si>
+    <t>3. 아이템 궤적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      건희형 시간 남을 때 진행</t>
+  </si>
+  <si>
+    <t>4. ESC시 메뉴화면</t>
+  </si>
+  <si>
+    <t>5. 사운드 작업</t>
+  </si>
+  <si>
+    <t>1. 캐릭터 구조, 금환이형처럼 바꾸는 거</t>
+  </si>
+  <si>
+    <t>2. rigidbody, collider 넣어주기</t>
+  </si>
+  <si>
+    <t>3. 사운드 관련, 애니메이션 이벤트에서 발자국 소리 나게 해놨는데, 함수설정, 애니메이션 클립 갖고와서 복사</t>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프대, 포탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바뀔 때 캐릭터에서 보스몬스터 페이즈 변경할 때 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작을 알리는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 애니메이션 소리 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 피격 소리처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부쉬 들어갈 때 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업된 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임매니저에서 처리 ESC키 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업한 것 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희 유석 금환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 마침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과창 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 (드랍 궤적, 무적이펙트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 죽었을 때 씬 넘기는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC 화면, 메인메뉴 캐릭터 넘어감처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 궁극의 알파: 서버작업(포톤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과창, 캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,6 +1960,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1861,15 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8121,6 +8243,196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF0399-1D73-4121-A76F-B9320752FFDA}">
+  <dimension ref="B3:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" t="s">
+        <v>339</v>
+      </c>
+      <c r="L4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O39"/>
@@ -11501,9 +11813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -11525,44 +11837,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -11612,10 +11924,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="61" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -11626,10 +11938,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="65" t="s">
         <v>248</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -11640,8 +11952,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -11657,8 +11969,8 @@
       <c r="J7" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="N7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -11667,8 +11979,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -11678,8 +11990,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="69"/>
-      <c r="N8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -11688,8 +12000,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -11699,8 +12011,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="70"/>
-      <c r="N9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -11709,8 +12021,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="61" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -11722,10 +12034,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="65" t="s">
         <v>249</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -11736,8 +12048,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -11753,8 +12065,8 @@
       <c r="J11" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="N11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -11763,8 +12075,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -11776,8 +12088,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="69"/>
-      <c r="N12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -11786,8 +12098,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -11797,8 +12109,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="70"/>
-      <c r="N13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -11807,8 +12119,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="61" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -11821,7 +12133,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="65" t="s">
         <v>250</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -11832,8 +12144,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -11850,7 +12162,7 @@
         <v>263</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="62"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -11859,8 +12171,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -11877,7 +12189,7 @@
       <c r="K16" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="N16" s="62"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -11886,8 +12198,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -11898,7 +12210,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="62"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -11907,8 +12219,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="61" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -11923,8 +12235,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -11941,8 +12253,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -11955,8 +12267,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -11975,8 +12287,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="61" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11997,8 +12309,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -12023,8 +12335,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -12048,8 +12360,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -12068,8 +12380,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="61" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -12084,8 +12396,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -12102,8 +12414,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -12116,8 +12428,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -12130,8 +12442,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="69" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -12146,8 +12458,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -12166,8 +12478,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -12180,8 +12492,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -12194,10 +12506,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="61" t="s">
         <v>239</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -12212,8 +12524,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -12232,8 +12544,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -12250,8 +12562,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -12270,8 +12582,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="71" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="61" t="s">
         <v>243</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -12286,8 +12598,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -12306,8 +12618,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -12324,8 +12636,8 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -12344,8 +12656,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="71" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="61" t="s">
         <v>244</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -12360,8 +12672,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -12380,8 +12692,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -12398,8 +12710,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -12414,8 +12726,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="61" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -12430,8 +12742,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -12450,8 +12762,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -12470,8 +12782,8 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -12484,8 +12796,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="71" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="61" t="s">
         <v>245</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -12500,8 +12812,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -12518,8 +12830,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -12536,8 +12848,8 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -12552,8 +12864,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="71" t="s">
+      <c r="B54" s="62"/>
+      <c r="C54" s="61" t="s">
         <v>240</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -12568,8 +12880,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -12584,8 +12896,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -12598,8 +12910,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -12620,8 +12932,8 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="71" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="61" t="s">
         <v>241</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -12636,8 +12948,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -12654,8 +12966,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -12668,8 +12980,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -12682,8 +12994,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="71" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="61" t="s">
         <v>242</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -12698,8 +13010,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -12716,8 +13028,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -12730,8 +13042,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -12747,6 +13059,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -12762,16 +13084,6 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5FC099-2282-4F41-B3A9-5E425CE13B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD578F3-4A50-40BC-8312-1B36BCE259F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="5565" windowWidth="25020" windowHeight="15030" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="8월 3일" sheetId="9" r:id="rId8"/>
     <sheet name="리소스 당신의 선택은" sheetId="8" r:id="rId9"/>
     <sheet name="8월 9일" sheetId="10" r:id="rId10"/>
+    <sheet name="8월 13일" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="382">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1418,6 +1419,136 @@
   </si>
   <si>
     <t>결과창, 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 부쉬안에 들어가면 보몬, 일반 몹이 캐릭터 추적 못하도록</t>
+  </si>
+  <si>
+    <t>3. 각 일감들 관련된 리소스 정하기 (히트, 등등)</t>
+  </si>
+  <si>
+    <t>4. 레벨 정리 (안쓰는 오브젝트, 일반몹은 게임 시작 후 리스폰) = &gt;이건 뭐 마지막에 해도됨</t>
+  </si>
+  <si>
+    <t>5. 일반몹 가끔 고장난것처럼 모션할 때 있음 (원래 애니메이션이 그런건가 확인필요)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. 아이템 궤적 속도 쪼금만 더 빠르게 </t>
+  </si>
+  <si>
+    <t>2. 보스 타겟팅 거리 좀만 수정 (너무 멀리 있어도 지금 보스를 타겟으로 잡고 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른의견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알이 들어왔을 때 부쉬 투명해지는 효과는 없는 걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희: 보스 타게팅 거리 축소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환: 부쉬에서 보스몬스터 타겟처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부쉬 수정하고 더 보는 걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석: Brwal 은 UI처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win Lose 임시처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희: 아이템 속도 조금 더 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워프, 점프대, 애니메이션 어떻게 하는 거임?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 있으면 각 Update문에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피격시, 보스몬스터 스킬 사운드(터지는거), 주먹날리는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반몹(구구구구 소리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 도착시 소리, 점프대 도착시 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금환: 보스몬스터 양 옆에 몬스터 3마리씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인메뉴 30초 (자막 띄우고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석: 포탈 사운드 고려, 로딩창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 캐릭터 셀렉터 2마리 입장컷(30초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 캐릭터 셀렉터 2마리 입장컷(30초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 아이템 기능(무적, 스테미너 피버 HP) 30초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 점프대, 포탈 30초(설명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막으로 카메라 따라다녀요~</t>
+  </si>
+  <si>
+    <t>6. 부쉬, 몬스터 인식 30초 (설명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 각 캐릭터 플레이 영상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 각 캐릭터 플레이 영상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 각 캐릭터 플레이 영상3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 각 캐릭터 플레이 영상4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 보스 패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1960,15 +2091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1992,6 +2114,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8247,7 +8381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF0399-1D73-4121-A76F-B9320752FFDA}">
   <dimension ref="B3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -8424,6 +8558,314 @@
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBAA853-8879-4729-B988-B7080C7EFA4B}">
+  <dimension ref="B3:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>357</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O5" s="23"/>
+      <c r="P5" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O6" s="23"/>
+      <c r="P6" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O7" s="23"/>
+      <c r="P7" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O10" s="23"/>
+      <c r="P10" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O11" s="23"/>
+      <c r="P11" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O12" s="23"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>349</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O17" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O18" s="23"/>
+      <c r="P18" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O19" s="23"/>
+      <c r="P19" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O20" s="23"/>
+      <c r="P20" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O22" s="23"/>
+      <c r="P22" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O23" s="23"/>
+      <c r="P23" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O24" s="23"/>
+      <c r="P24" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O25" s="23"/>
+      <c r="P25" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="T25" s="15"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>351</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>358</v>
+      </c>
+      <c r="O27" s="23"/>
+      <c r="P27" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O28" s="24"/>
+      <c r="P28" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -11837,44 +12279,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="64" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -11924,10 +12366,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="71" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -11938,10 +12380,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="62" t="s">
         <v>248</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -11952,8 +12394,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -11969,8 +12411,8 @@
       <c r="J7" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="N7" s="65"/>
+      <c r="K7" s="69"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -11979,8 +12421,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -11990,8 +12432,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="62"/>
-      <c r="N8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -12000,8 +12442,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -12011,8 +12453,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="63"/>
-      <c r="N9" s="65"/>
+      <c r="K9" s="70"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -12021,8 +12463,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="71" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -12034,10 +12476,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="62" t="s">
         <v>249</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -12048,8 +12490,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -12065,8 +12507,8 @@
       <c r="J11" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="N11" s="65"/>
+      <c r="K11" s="69"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -12075,8 +12517,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -12088,8 +12530,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="62"/>
-      <c r="N12" s="65"/>
+      <c r="K12" s="69"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -12098,8 +12540,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -12109,8 +12551,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="63"/>
-      <c r="N13" s="65"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -12119,8 +12561,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="71" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -12133,7 +12575,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="62" t="s">
         <v>250</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -12144,8 +12586,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -12162,7 +12604,7 @@
         <v>263</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="65"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -12171,8 +12613,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -12189,7 +12631,7 @@
       <c r="K16" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="N16" s="65"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -12198,8 +12640,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -12210,7 +12652,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="65"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -12219,8 +12661,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="71" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -12235,8 +12677,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -12253,8 +12695,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -12267,8 +12709,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -12287,8 +12729,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="61" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -12309,8 +12751,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -12335,8 +12777,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -12360,8 +12802,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -12380,8 +12822,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="71" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -12396,8 +12838,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -12414,8 +12856,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -12428,8 +12870,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -12442,8 +12884,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -12458,8 +12900,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -12478,8 +12920,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -12492,8 +12934,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -12506,10 +12948,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="71" t="s">
         <v>239</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -12524,8 +12966,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -12544,8 +12986,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -12562,8 +13004,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -12582,8 +13024,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="71" t="s">
         <v>243</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -12598,8 +13040,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -12618,8 +13060,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -12636,8 +13078,8 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -12656,8 +13098,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
-      <c r="C42" s="61" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="71" t="s">
         <v>244</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -12672,8 +13114,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -12692,8 +13134,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -12710,8 +13152,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -12726,8 +13168,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="61" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="71" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -12742,8 +13184,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -12762,8 +13204,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -12782,8 +13224,8 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -12796,8 +13238,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="61" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="71" t="s">
         <v>245</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -12812,8 +13254,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -12830,8 +13272,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -12848,8 +13290,8 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -12864,8 +13306,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62"/>
-      <c r="C54" s="61" t="s">
+      <c r="B54" s="69"/>
+      <c r="C54" s="71" t="s">
         <v>240</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -12880,8 +13322,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -12896,8 +13338,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -12910,8 +13352,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -12932,8 +13374,8 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="62"/>
-      <c r="C58" s="61" t="s">
+      <c r="B58" s="69"/>
+      <c r="C58" s="71" t="s">
         <v>241</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -12948,8 +13390,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -12966,8 +13408,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -12980,8 +13422,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -12994,8 +13436,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="62"/>
-      <c r="C62" s="61" t="s">
+      <c r="B62" s="69"/>
+      <c r="C62" s="71" t="s">
         <v>242</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -13010,8 +13452,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -13028,8 +13470,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -13042,8 +13484,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -13059,16 +13501,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -13084,6 +13516,16 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work_Report.xlsx
+++ b/Work_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub4\BrawlStars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD578F3-4A50-40BC-8312-1B36BCE259F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630784F-D050-466B-BFD1-56857B1A6E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="5565" windowWidth="25020" windowHeight="15030" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2160" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 기준" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="리소스 당신의 선택은" sheetId="8" r:id="rId9"/>
     <sheet name="8월 9일" sheetId="10" r:id="rId10"/>
     <sheet name="8월 13일" sheetId="11" r:id="rId11"/>
+    <sheet name="8월 16일" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">일감!$B$2:$I$30</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="412">
   <si>
     <t xml:space="preserve">시작 일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,6 +1550,125 @@
   </si>
   <si>
     <t>7. 보스 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 무적 아이템 적용 이펙트가 너무 느리게 나오는 것 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건희: 이펙트 시간 빠르게 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 보스 다시 살아나는 버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부쉬처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Win, Lose 떴을 때 캐릭터랑 보스몬스터 안 움직이도록 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 리트라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 클리어타임 실제와 다르게 나오는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameManager 에서 변수 하나 만들어서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 별생성 퍼센티지로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준성: 별생성 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 윈 루즈에 따라 결과창 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossFirePunch3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterHit3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추격할 때 1번, Idle 로 돌아가면 초기화, 사운드 오브젝트에서 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반몬스터 피격소리 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 히트소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반몬스터 추격소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count 줘서 여러 번 맞았을 때 한 번 소리나는 걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈소리  넣을 거면, Potal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 페이즈2 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossSkill1</t>
+  </si>
+  <si>
+    <t>코드 수정, 영상수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win Lose 시 소리 한 번 틀기, 소리넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win, Lose 배경 저장, 렌더 텍스쳐, 게임 클리어시 몬스터, 플레이어 정지, 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 이펙트, 게임 시작시 Brawl UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,6 +2163,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2091,6 +2214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2114,18 +2246,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8251,28 +8371,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
@@ -8280,7 +8400,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8294,7 +8414,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -8304,7 +8424,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -8314,7 +8434,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -8346,7 +8466,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -8356,7 +8476,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
@@ -8571,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBAA853-8879-4729-B988-B7080C7EFA4B}">
   <dimension ref="B3:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8797,7 +8917,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="O24" s="23"/>
-      <c r="P24" s="72" t="s">
+      <c r="P24" s="45" t="s">
         <v>381</v>
       </c>
       <c r="Q24" s="15"/>
@@ -8866,6 +8986,159 @@
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2196C0F-1058-4D7E-86CE-396497950C1B}">
+  <dimension ref="B2:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>393</v>
+      </c>
+      <c r="O5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" t="s">
+        <v>395</v>
+      </c>
+      <c r="O6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>400</v>
+      </c>
+      <c r="O7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>386</v>
+      </c>
+      <c r="M8" t="s">
+        <v>402</v>
+      </c>
+      <c r="O8" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>406</v>
+      </c>
+      <c r="O9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>387</v>
+      </c>
+      <c r="M14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>390</v>
+      </c>
+      <c r="M16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+      <c r="N17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8889,584 +9162,584 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="57"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="57"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="58"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="57"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="57"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="58"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="57"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="58"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="57"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="57"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="57"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="58"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="57"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="57"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="57"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="57"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="60"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12255,9 +12528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:R65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10:Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -12279,44 +12552,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
@@ -12366,10 +12639,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="62" t="s">
         <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -12380,10 +12653,10 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="66" t="s">
         <v>248</v>
       </c>
       <c r="O6" s="41" t="s">
@@ -12394,8 +12667,8 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
@@ -12411,8 +12684,8 @@
       <c r="J7" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="N7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="41" t="s">
         <v>65</v>
       </c>
@@ -12421,8 +12694,8 @@
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="41" t="s">
         <v>66</v>
       </c>
@@ -12432,8 +12705,8 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="69"/>
-      <c r="N8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="41" t="s">
         <v>66</v>
       </c>
@@ -12442,8 +12715,8 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -12453,8 +12726,8 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="70"/>
-      <c r="N9" s="62"/>
+      <c r="K9" s="64"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="41" t="s">
         <v>70</v>
       </c>
@@ -12463,8 +12736,8 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="62" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -12476,10 +12749,10 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="66" t="s">
         <v>249</v>
       </c>
       <c r="O10" s="41" t="s">
@@ -12490,8 +12763,8 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
@@ -12507,8 +12780,8 @@
       <c r="J11" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="N11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="41" t="s">
         <v>65</v>
       </c>
@@ -12517,8 +12790,8 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
@@ -12530,8 +12803,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="69"/>
-      <c r="N12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="41" t="s">
         <v>66</v>
       </c>
@@ -12540,8 +12813,8 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
@@ -12551,8 +12824,8 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="70"/>
-      <c r="N13" s="62"/>
+      <c r="K13" s="64"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="41" t="s">
         <v>70</v>
       </c>
@@ -12561,8 +12834,8 @@
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="62" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -12575,7 +12848,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="66" t="s">
         <v>250</v>
       </c>
       <c r="O14" s="41" t="s">
@@ -12586,8 +12859,8 @@
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
@@ -12604,7 +12877,7 @@
         <v>263</v>
       </c>
       <c r="K15" s="41"/>
-      <c r="N15" s="62"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
@@ -12613,8 +12886,8 @@
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="41" t="s">
         <v>66</v>
       </c>
@@ -12631,7 +12904,7 @@
       <c r="K16" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="N16" s="62"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
@@ -12640,8 +12913,8 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="41" t="s">
         <v>70</v>
       </c>
@@ -12652,7 +12925,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="N17" s="62"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="41" t="s">
         <v>70</v>
       </c>
@@ -12661,8 +12934,8 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="62" t="s">
         <v>232</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -12677,8 +12950,8 @@
       <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="41" t="s">
         <v>65</v>
       </c>
@@ -12695,8 +12968,8 @@
       <c r="K19" s="41"/>
     </row>
     <row r="20" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="41" t="s">
         <v>66</v>
       </c>
@@ -12709,8 +12982,8 @@
       <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="41" t="s">
         <v>70</v>
       </c>
@@ -12729,8 +13002,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="62" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -12751,8 +13024,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
@@ -12777,8 +13050,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="41" t="s">
         <v>66</v>
       </c>
@@ -12802,8 +13075,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="41" t="s">
         <v>70</v>
       </c>
@@ -12822,8 +13095,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="62" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -12838,8 +13111,8 @@
       <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
@@ -12856,8 +13129,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
@@ -12870,8 +13143,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="41" t="s">
         <v>70</v>
       </c>
@@ -12884,8 +13157,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="70" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -12900,8 +13173,8 @@
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="41" t="s">
         <v>65</v>
       </c>
@@ -12920,8 +13193,8 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="41" t="s">
         <v>66</v>
       </c>
@@ -12934,8 +13207,8 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="41" t="s">
         <v>70</v>
       </c>
@@ -12948,10 +13221,10 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="62" t="s">
         <v>239</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -12966,8 +13239,8 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="41" t="s">
         <v>65</v>
       </c>
@@ -12986,8 +13259,8 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="41" t="s">
         <v>66</v>
       </c>
@@ -13004,8 +13277,8 @@
       <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="41" t="s">
         <v>70</v>
       </c>
@@ -13024,8 +13297,8 @@
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="71" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="62" t="s">
         <v>243</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -13040,8 +13313,8 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="41" t="s">
         <v>65</v>
       </c>
@@ -13060,8 +13333,8 @@
       <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="41" t="s">
         <v>66</v>
       </c>
@@ -13078,8 +13351,8 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="41" t="s">
         <v>70</v>
       </c>
@@ -13098,8 +13371,8 @@
       <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="71" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="62" t="s">
         <v>244</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -13114,8 +13387,8 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="41" t="s">
         <v>65</v>
       </c>
@@ -13134,8 +13407,8 @@
       <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="41" t="s">
         <v>66</v>
       </c>
@@ -13152,8 +13425,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="41" t="s">
         <v>70</v>
       </c>
@@ -13168,8 +13441,8 @@
       <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="71" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -13184,8 +13457,8 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="41" t="s">
         <v>65</v>
       </c>
@@ -13204,8 +13477,8 @@
       <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="41" t="s">
         <v>66</v>
       </c>
@@ -13224,8 +13497,8 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="41" t="s">
         <v>70</v>
       </c>
@@ -13238,8 +13511,8 @@
       <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="71" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="62" t="s">
         <v>245</v>
       </c>
       <c r="D50" s="41" t="s">
@@ -13254,8 +13527,8 @@
       <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="41" t="s">
         <v>65</v>
       </c>
@@ -13272,8 +13545,8 @@
       <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="41" t="s">
         <v>66</v>
       </c>
@@ -13290,8 +13563,8 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="41" t="s">
         <v>70</v>
       </c>
@@ -13306,8 +13579,8 @@
       <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
-      <c r="C54" s="71" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="62" t="s">
         <v>240</v>
       </c>
       <c r="D54" s="41" t="s">
@@ -13322,8 +13595,8 @@
       <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="41" t="s">
         <v>65</v>
       </c>
@@ -13338,8 +13611,8 @@
       <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="41" t="s">
         <v>66</v>
       </c>
@@ -13352,8 +13625,8 @@
       <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="41" t="s">
         <v>70</v>
       </c>
@@ -13374,8 +13647,8 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
-      <c r="C58" s="71" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="62" t="s">
         <v>241</v>
       </c>
       <c r="D58" s="41" t="s">
@@ -13390,8 +13663,8 @@
       <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="41" t="s">
         <v>65</v>
       </c>
@@ -13408,8 +13681,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="41" t="s">
         <v>66</v>
       </c>
@@ -13422,8 +13695,8 @@
       <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="41" t="s">
         <v>70</v>
       </c>
@@ -13436,8 +13709,8 @@
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="69"/>
-      <c r="C62" s="71" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="62" t="s">
         <v>242</v>
       </c>
       <c r="D62" s="41" t="s">
@@ -13452,8 +13725,8 @@
       <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="41" t="s">
         <v>65</v>
       </c>
@@ -13470,8 +13743,8 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="41" t="s">
         <v>66</v>
       </c>
@@ -13484,8 +13757,8 @@
       <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="41" t="s">
         <v>70</v>
       </c>
@@ -13501,6 +13774,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N3:R4"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="B34:B65"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -13516,16 +13799,6 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C62:C65"/>
-    <mergeCell ref="N3:R4"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B6:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K10:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
